--- a/src/test/java/testData/CheckoutData.xlsx
+++ b/src/test/java/testData/CheckoutData.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="64">
   <si>
     <t>ID</t>
   </si>
@@ -202,6 +202,9 @@
   </si>
   <si>
     <t>Pass</t>
+  </si>
+  <si>
+    <t>Fail</t>
   </si>
 </sst>
 </file>
@@ -621,7 +624,7 @@
         <v>25</v>
       </c>
       <c r="P2" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3">

--- a/src/test/java/testData/CheckoutData.xlsx
+++ b/src/test/java/testData/CheckoutData.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="64">
   <si>
     <t>ID</t>
   </si>
@@ -114,6 +114,9 @@
     <t>245 Park Ave Bldg 99, New York NY 10167-3000</t>
   </si>
   <si>
+    <t>10167</t>
+  </si>
+  <si>
     <t>0599794525</t>
   </si>
   <si>
@@ -202,9 +205,6 @@
   </si>
   <si>
     <t>Pass</t>
-  </si>
-  <si>
-    <t>Fail</t>
   </si>
 </sst>
 </file>
@@ -289,6 +289,9 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
@@ -297,9 +300,6 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
@@ -558,7 +558,7 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="2" t="s">
@@ -608,7 +608,7 @@
       <c r="J2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="6" t="s">
         <v>22</v>
       </c>
       <c r="L2" s="6" t="s">
@@ -658,11 +658,11 @@
       <c r="J3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="K3" s="3">
-        <v>10167.0</v>
+      <c r="K3" s="9" t="s">
+        <v>33</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M3" s="3" t="s">
         <v>23</v>
@@ -674,27 +674,27 @@
         <v>25</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G4" s="3">
         <v>1.0</v>
@@ -708,7 +708,7 @@
       <c r="J4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="9" t="s">
         <v>22</v>
       </c>
       <c r="L4" s="9" t="s">
@@ -724,15 +724,15 @@
         <v>25</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" ht="27.0" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>28</v>
@@ -744,7 +744,7 @@
         <v>22</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G5" s="10">
         <v>1.0</v>
@@ -758,11 +758,11 @@
       <c r="J5" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="K5" s="3">
-        <v>10167.0</v>
+      <c r="K5" s="9" t="s">
+        <v>33</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M5" s="3" t="s">
         <v>23</v>
@@ -774,15 +774,15 @@
         <v>25</v>
       </c>
       <c r="P5" s="11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>28</v>
@@ -808,37 +808,37 @@
       <c r="J6" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="K6" s="12">
-        <v>10167.0</v>
+      <c r="K6" s="13" t="s">
+        <v>33</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N6" s="3" t="s">
         <v>24</v>
       </c>
       <c r="O6" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P6" s="11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>20</v>
@@ -858,7 +858,7 @@
       <c r="J7" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="K7" s="12" t="s">
+      <c r="K7" s="13" t="s">
         <v>22</v>
       </c>
       <c r="L7" s="9" t="s">
@@ -871,18 +871,18 @@
         <v>24</v>
       </c>
       <c r="O7" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P7" s="11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>28</v>
@@ -894,7 +894,7 @@
         <v>22</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G8" s="10" t="s">
         <v>22</v>
@@ -908,11 +908,11 @@
       <c r="J8" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="K8" s="12">
-        <v>10167.0</v>
+      <c r="K8" s="13" t="s">
+        <v>33</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>23</v>
@@ -921,30 +921,30 @@
         <v>24</v>
       </c>
       <c r="O8" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="P8" s="13" t="s">
-        <v>62</v>
+        <v>44</v>
+      </c>
+      <c r="P8" s="14" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>18</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G9" s="10" t="s">
         <v>22</v>
@@ -958,7 +958,7 @@
       <c r="J9" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="K9" s="12" t="s">
+      <c r="K9" s="13" t="s">
         <v>22</v>
       </c>
       <c r="L9" s="9" t="s">
@@ -971,18 +971,18 @@
         <v>24</v>
       </c>
       <c r="O9" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="P9" s="13" t="s">
-        <v>62</v>
+        <v>44</v>
+      </c>
+      <c r="P9" s="14" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="10" ht="30.75" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>28</v>
@@ -1008,51 +1008,51 @@
       <c r="J10" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="K10" s="12">
-        <v>10167.0</v>
+      <c r="K10" s="13" t="s">
+        <v>33</v>
       </c>
       <c r="L10" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M10" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O10" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P10" s="11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Q10" s="11"/>
-      <c r="R10" s="14"/>
-      <c r="S10" s="14"/>
-      <c r="T10" s="14"/>
-      <c r="U10" s="14"/>
-      <c r="V10" s="14"/>
-      <c r="W10" s="14"/>
-      <c r="X10" s="14"/>
-      <c r="Y10" s="14"/>
-      <c r="Z10" s="14"/>
-      <c r="AA10" s="14"/>
-      <c r="AB10" s="14"/>
+      <c r="R10" s="15"/>
+      <c r="S10" s="15"/>
+      <c r="T10" s="15"/>
+      <c r="U10" s="15"/>
+      <c r="V10" s="15"/>
+      <c r="W10" s="15"/>
+      <c r="X10" s="15"/>
+      <c r="Y10" s="15"/>
+      <c r="Z10" s="15"/>
+      <c r="AA10" s="15"/>
+      <c r="AB10" s="15"/>
     </row>
     <row r="11">
       <c r="A11" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>18</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="E11" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="16" t="s">
         <v>20</v>
       </c>
       <c r="F11" s="5" t="s">
@@ -1070,39 +1070,39 @@
       <c r="J11" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="K11" s="12" t="s">
+      <c r="K11" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="L11" s="16" t="s">
+      <c r="L11" s="13" t="s">
         <v>22</v>
       </c>
       <c r="M11" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="O11" s="15" t="s">
-        <v>43</v>
+        <v>56</v>
+      </c>
+      <c r="O11" s="16" t="s">
+        <v>44</v>
       </c>
       <c r="P11" t="s" s="0">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>28</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="E12" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="16" t="s">
         <v>20</v>
       </c>
       <c r="F12" s="5" t="s">
@@ -1111,16 +1111,16 @@
       <c r="G12" s="10">
         <v>1.0</v>
       </c>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
       <c r="J12" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="K12" s="12">
-        <v>10167.0</v>
+      <c r="K12" s="13" t="s">
+        <v>33</v>
       </c>
       <c r="L12" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M12" s="3" t="s">
         <v>23</v>
@@ -1128,2993 +1128,3983 @@
       <c r="N12" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="O12" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="P12" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q12" s="13"/>
-      <c r="R12" s="13"/>
-      <c r="S12" s="13"/>
-      <c r="T12" s="13"/>
-      <c r="U12" s="13"/>
-      <c r="V12" s="13"/>
-      <c r="W12" s="13"/>
-      <c r="X12" s="13"/>
-      <c r="Y12" s="13"/>
-      <c r="Z12" s="13"/>
-      <c r="AA12" s="13"/>
-      <c r="AB12" s="13"/>
+      <c r="O12" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="P12" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="14"/>
+      <c r="S12" s="14"/>
+      <c r="T12" s="14"/>
+      <c r="U12" s="14"/>
+      <c r="V12" s="14"/>
+      <c r="W12" s="14"/>
+      <c r="X12" s="14"/>
+      <c r="Y12" s="14"/>
+      <c r="Z12" s="14"/>
+      <c r="AA12" s="14"/>
+      <c r="AB12" s="14"/>
     </row>
     <row r="13">
+      <c r="K13" s="17"/>
       <c r="L13" s="17"/>
     </row>
     <row r="14">
+      <c r="K14" s="17"/>
       <c r="L14" s="17"/>
     </row>
     <row r="15">
+      <c r="K15" s="17"/>
       <c r="L15" s="17"/>
     </row>
     <row r="16">
+      <c r="K16" s="17"/>
       <c r="L16" s="17"/>
     </row>
     <row r="17">
+      <c r="K17" s="17"/>
       <c r="L17" s="17"/>
     </row>
     <row r="18">
+      <c r="K18" s="17"/>
       <c r="L18" s="17"/>
     </row>
     <row r="19">
+      <c r="K19" s="17"/>
       <c r="L19" s="17"/>
     </row>
     <row r="20">
+      <c r="K20" s="17"/>
       <c r="L20" s="17"/>
     </row>
     <row r="21">
+      <c r="K21" s="17"/>
       <c r="L21" s="17"/>
     </row>
     <row r="22">
+      <c r="K22" s="17"/>
       <c r="L22" s="17"/>
     </row>
     <row r="23">
+      <c r="K23" s="17"/>
       <c r="L23" s="17"/>
     </row>
     <row r="24">
+      <c r="K24" s="17"/>
       <c r="L24" s="17"/>
     </row>
     <row r="25">
+      <c r="K25" s="17"/>
       <c r="L25" s="17"/>
     </row>
     <row r="26">
+      <c r="K26" s="17"/>
       <c r="L26" s="17"/>
     </row>
     <row r="27">
+      <c r="K27" s="17"/>
       <c r="L27" s="17"/>
     </row>
     <row r="28">
+      <c r="K28" s="17"/>
       <c r="L28" s="17"/>
     </row>
     <row r="29">
+      <c r="K29" s="17"/>
       <c r="L29" s="17"/>
     </row>
     <row r="30">
+      <c r="K30" s="17"/>
       <c r="L30" s="17"/>
     </row>
     <row r="31">
+      <c r="K31" s="17"/>
       <c r="L31" s="17"/>
     </row>
     <row r="32">
+      <c r="K32" s="17"/>
       <c r="L32" s="17"/>
     </row>
     <row r="33">
+      <c r="K33" s="17"/>
       <c r="L33" s="17"/>
     </row>
     <row r="34">
+      <c r="K34" s="17"/>
       <c r="L34" s="17"/>
     </row>
     <row r="35">
+      <c r="K35" s="17"/>
       <c r="L35" s="17"/>
     </row>
     <row r="36">
+      <c r="K36" s="17"/>
       <c r="L36" s="17"/>
     </row>
     <row r="37">
+      <c r="K37" s="17"/>
       <c r="L37" s="17"/>
     </row>
     <row r="38">
+      <c r="K38" s="17"/>
       <c r="L38" s="17"/>
     </row>
     <row r="39">
+      <c r="K39" s="17"/>
       <c r="L39" s="17"/>
     </row>
     <row r="40">
+      <c r="K40" s="17"/>
       <c r="L40" s="17"/>
     </row>
     <row r="41">
+      <c r="K41" s="17"/>
       <c r="L41" s="17"/>
     </row>
     <row r="42">
+      <c r="K42" s="17"/>
       <c r="L42" s="17"/>
     </row>
     <row r="43">
+      <c r="K43" s="17"/>
       <c r="L43" s="17"/>
     </row>
     <row r="44">
+      <c r="K44" s="17"/>
       <c r="L44" s="17"/>
     </row>
     <row r="45">
+      <c r="K45" s="17"/>
       <c r="L45" s="17"/>
     </row>
     <row r="46">
+      <c r="K46" s="17"/>
       <c r="L46" s="17"/>
     </row>
     <row r="47">
+      <c r="K47" s="17"/>
       <c r="L47" s="17"/>
     </row>
     <row r="48">
+      <c r="K48" s="17"/>
       <c r="L48" s="17"/>
     </row>
     <row r="49">
+      <c r="K49" s="17"/>
       <c r="L49" s="17"/>
     </row>
     <row r="50">
+      <c r="K50" s="17"/>
       <c r="L50" s="17"/>
     </row>
     <row r="51">
+      <c r="K51" s="17"/>
       <c r="L51" s="17"/>
     </row>
     <row r="52">
+      <c r="K52" s="17"/>
       <c r="L52" s="17"/>
     </row>
     <row r="53">
+      <c r="K53" s="17"/>
       <c r="L53" s="17"/>
     </row>
     <row r="54">
+      <c r="K54" s="17"/>
       <c r="L54" s="17"/>
     </row>
     <row r="55">
+      <c r="K55" s="17"/>
       <c r="L55" s="17"/>
     </row>
     <row r="56">
+      <c r="K56" s="17"/>
       <c r="L56" s="17"/>
     </row>
     <row r="57">
+      <c r="K57" s="17"/>
       <c r="L57" s="17"/>
     </row>
     <row r="58">
+      <c r="K58" s="17"/>
       <c r="L58" s="17"/>
     </row>
     <row r="59">
+      <c r="K59" s="17"/>
       <c r="L59" s="17"/>
     </row>
     <row r="60">
+      <c r="K60" s="17"/>
       <c r="L60" s="17"/>
     </row>
     <row r="61">
+      <c r="K61" s="17"/>
       <c r="L61" s="17"/>
     </row>
     <row r="62">
+      <c r="K62" s="17"/>
       <c r="L62" s="17"/>
     </row>
     <row r="63">
+      <c r="K63" s="17"/>
       <c r="L63" s="17"/>
     </row>
     <row r="64">
+      <c r="K64" s="17"/>
       <c r="L64" s="17"/>
     </row>
     <row r="65">
+      <c r="K65" s="17"/>
       <c r="L65" s="17"/>
     </row>
     <row r="66">
+      <c r="K66" s="17"/>
       <c r="L66" s="17"/>
     </row>
     <row r="67">
+      <c r="K67" s="17"/>
       <c r="L67" s="17"/>
     </row>
     <row r="68">
+      <c r="K68" s="17"/>
       <c r="L68" s="17"/>
     </row>
     <row r="69">
+      <c r="K69" s="17"/>
       <c r="L69" s="17"/>
     </row>
     <row r="70">
+      <c r="K70" s="17"/>
       <c r="L70" s="17"/>
     </row>
     <row r="71">
+      <c r="K71" s="17"/>
       <c r="L71" s="17"/>
     </row>
     <row r="72">
+      <c r="K72" s="17"/>
       <c r="L72" s="17"/>
     </row>
     <row r="73">
+      <c r="K73" s="17"/>
       <c r="L73" s="17"/>
     </row>
     <row r="74">
+      <c r="K74" s="17"/>
       <c r="L74" s="17"/>
     </row>
     <row r="75">
+      <c r="K75" s="17"/>
       <c r="L75" s="17"/>
     </row>
     <row r="76">
+      <c r="K76" s="17"/>
       <c r="L76" s="17"/>
     </row>
     <row r="77">
+      <c r="K77" s="17"/>
       <c r="L77" s="17"/>
     </row>
     <row r="78">
+      <c r="K78" s="17"/>
       <c r="L78" s="17"/>
     </row>
     <row r="79">
+      <c r="K79" s="17"/>
       <c r="L79" s="17"/>
     </row>
     <row r="80">
+      <c r="K80" s="17"/>
       <c r="L80" s="17"/>
     </row>
     <row r="81">
+      <c r="K81" s="17"/>
       <c r="L81" s="17"/>
     </row>
     <row r="82">
+      <c r="K82" s="17"/>
       <c r="L82" s="17"/>
     </row>
     <row r="83">
+      <c r="K83" s="17"/>
       <c r="L83" s="17"/>
     </row>
     <row r="84">
+      <c r="K84" s="17"/>
       <c r="L84" s="17"/>
     </row>
     <row r="85">
+      <c r="K85" s="17"/>
       <c r="L85" s="17"/>
     </row>
     <row r="86">
+      <c r="K86" s="17"/>
       <c r="L86" s="17"/>
     </row>
     <row r="87">
+      <c r="K87" s="17"/>
       <c r="L87" s="17"/>
     </row>
     <row r="88">
+      <c r="K88" s="17"/>
       <c r="L88" s="17"/>
     </row>
     <row r="89">
+      <c r="K89" s="17"/>
       <c r="L89" s="17"/>
     </row>
     <row r="90">
+      <c r="K90" s="17"/>
       <c r="L90" s="17"/>
     </row>
     <row r="91">
+      <c r="K91" s="17"/>
       <c r="L91" s="17"/>
     </row>
     <row r="92">
+      <c r="K92" s="17"/>
       <c r="L92" s="17"/>
     </row>
     <row r="93">
+      <c r="K93" s="17"/>
       <c r="L93" s="17"/>
     </row>
     <row r="94">
+      <c r="K94" s="17"/>
       <c r="L94" s="17"/>
     </row>
     <row r="95">
+      <c r="K95" s="17"/>
       <c r="L95" s="17"/>
     </row>
     <row r="96">
+      <c r="K96" s="17"/>
       <c r="L96" s="17"/>
     </row>
     <row r="97">
+      <c r="K97" s="17"/>
       <c r="L97" s="17"/>
     </row>
     <row r="98">
+      <c r="K98" s="17"/>
       <c r="L98" s="17"/>
     </row>
     <row r="99">
+      <c r="K99" s="17"/>
       <c r="L99" s="17"/>
     </row>
     <row r="100">
+      <c r="K100" s="17"/>
       <c r="L100" s="17"/>
     </row>
     <row r="101">
+      <c r="K101" s="17"/>
       <c r="L101" s="17"/>
     </row>
     <row r="102">
+      <c r="K102" s="17"/>
       <c r="L102" s="17"/>
     </row>
     <row r="103">
+      <c r="K103" s="17"/>
       <c r="L103" s="17"/>
     </row>
     <row r="104">
+      <c r="K104" s="17"/>
       <c r="L104" s="17"/>
     </row>
     <row r="105">
+      <c r="K105" s="17"/>
       <c r="L105" s="17"/>
     </row>
     <row r="106">
+      <c r="K106" s="17"/>
       <c r="L106" s="17"/>
     </row>
     <row r="107">
+      <c r="K107" s="17"/>
       <c r="L107" s="17"/>
     </row>
     <row r="108">
+      <c r="K108" s="17"/>
       <c r="L108" s="17"/>
     </row>
     <row r="109">
+      <c r="K109" s="17"/>
       <c r="L109" s="17"/>
     </row>
     <row r="110">
+      <c r="K110" s="17"/>
       <c r="L110" s="17"/>
     </row>
     <row r="111">
+      <c r="K111" s="17"/>
       <c r="L111" s="17"/>
     </row>
     <row r="112">
+      <c r="K112" s="17"/>
       <c r="L112" s="17"/>
     </row>
     <row r="113">
+      <c r="K113" s="17"/>
       <c r="L113" s="17"/>
     </row>
     <row r="114">
+      <c r="K114" s="17"/>
       <c r="L114" s="17"/>
     </row>
     <row r="115">
+      <c r="K115" s="17"/>
       <c r="L115" s="17"/>
     </row>
     <row r="116">
+      <c r="K116" s="17"/>
       <c r="L116" s="17"/>
     </row>
     <row r="117">
+      <c r="K117" s="17"/>
       <c r="L117" s="17"/>
     </row>
     <row r="118">
+      <c r="K118" s="17"/>
       <c r="L118" s="17"/>
     </row>
     <row r="119">
+      <c r="K119" s="17"/>
       <c r="L119" s="17"/>
     </row>
     <row r="120">
+      <c r="K120" s="17"/>
       <c r="L120" s="17"/>
     </row>
     <row r="121">
+      <c r="K121" s="17"/>
       <c r="L121" s="17"/>
     </row>
     <row r="122">
+      <c r="K122" s="17"/>
       <c r="L122" s="17"/>
     </row>
     <row r="123">
+      <c r="K123" s="17"/>
       <c r="L123" s="17"/>
     </row>
     <row r="124">
+      <c r="K124" s="17"/>
       <c r="L124" s="17"/>
     </row>
     <row r="125">
+      <c r="K125" s="17"/>
       <c r="L125" s="17"/>
     </row>
     <row r="126">
+      <c r="K126" s="17"/>
       <c r="L126" s="17"/>
     </row>
     <row r="127">
+      <c r="K127" s="17"/>
       <c r="L127" s="17"/>
     </row>
     <row r="128">
+      <c r="K128" s="17"/>
       <c r="L128" s="17"/>
     </row>
     <row r="129">
+      <c r="K129" s="17"/>
       <c r="L129" s="17"/>
     </row>
     <row r="130">
+      <c r="K130" s="17"/>
       <c r="L130" s="17"/>
     </row>
     <row r="131">
+      <c r="K131" s="17"/>
       <c r="L131" s="17"/>
     </row>
     <row r="132">
+      <c r="K132" s="17"/>
       <c r="L132" s="17"/>
     </row>
     <row r="133">
+      <c r="K133" s="17"/>
       <c r="L133" s="17"/>
     </row>
     <row r="134">
+      <c r="K134" s="17"/>
       <c r="L134" s="17"/>
     </row>
     <row r="135">
+      <c r="K135" s="17"/>
       <c r="L135" s="17"/>
     </row>
     <row r="136">
+      <c r="K136" s="17"/>
       <c r="L136" s="17"/>
     </row>
     <row r="137">
+      <c r="K137" s="17"/>
       <c r="L137" s="17"/>
     </row>
     <row r="138">
+      <c r="K138" s="17"/>
       <c r="L138" s="17"/>
     </row>
     <row r="139">
+      <c r="K139" s="17"/>
       <c r="L139" s="17"/>
     </row>
     <row r="140">
+      <c r="K140" s="17"/>
       <c r="L140" s="17"/>
     </row>
     <row r="141">
+      <c r="K141" s="17"/>
       <c r="L141" s="17"/>
     </row>
     <row r="142">
+      <c r="K142" s="17"/>
       <c r="L142" s="17"/>
     </row>
     <row r="143">
+      <c r="K143" s="17"/>
       <c r="L143" s="17"/>
     </row>
     <row r="144">
+      <c r="K144" s="17"/>
       <c r="L144" s="17"/>
     </row>
     <row r="145">
+      <c r="K145" s="17"/>
       <c r="L145" s="17"/>
     </row>
     <row r="146">
+      <c r="K146" s="17"/>
       <c r="L146" s="17"/>
     </row>
     <row r="147">
+      <c r="K147" s="17"/>
       <c r="L147" s="17"/>
     </row>
     <row r="148">
+      <c r="K148" s="17"/>
       <c r="L148" s="17"/>
     </row>
     <row r="149">
+      <c r="K149" s="17"/>
       <c r="L149" s="17"/>
     </row>
     <row r="150">
+      <c r="K150" s="17"/>
       <c r="L150" s="17"/>
     </row>
     <row r="151">
+      <c r="K151" s="17"/>
       <c r="L151" s="17"/>
     </row>
     <row r="152">
+      <c r="K152" s="17"/>
       <c r="L152" s="17"/>
     </row>
     <row r="153">
+      <c r="K153" s="17"/>
       <c r="L153" s="17"/>
     </row>
     <row r="154">
+      <c r="K154" s="17"/>
       <c r="L154" s="17"/>
     </row>
     <row r="155">
+      <c r="K155" s="17"/>
       <c r="L155" s="17"/>
     </row>
     <row r="156">
+      <c r="K156" s="17"/>
       <c r="L156" s="17"/>
     </row>
     <row r="157">
+      <c r="K157" s="17"/>
       <c r="L157" s="17"/>
     </row>
     <row r="158">
+      <c r="K158" s="17"/>
       <c r="L158" s="17"/>
     </row>
     <row r="159">
+      <c r="K159" s="17"/>
       <c r="L159" s="17"/>
     </row>
     <row r="160">
+      <c r="K160" s="17"/>
       <c r="L160" s="17"/>
     </row>
     <row r="161">
+      <c r="K161" s="17"/>
       <c r="L161" s="17"/>
     </row>
     <row r="162">
+      <c r="K162" s="17"/>
       <c r="L162" s="17"/>
     </row>
     <row r="163">
+      <c r="K163" s="17"/>
       <c r="L163" s="17"/>
     </row>
     <row r="164">
+      <c r="K164" s="17"/>
       <c r="L164" s="17"/>
     </row>
     <row r="165">
+      <c r="K165" s="17"/>
       <c r="L165" s="17"/>
     </row>
     <row r="166">
+      <c r="K166" s="17"/>
       <c r="L166" s="17"/>
     </row>
     <row r="167">
+      <c r="K167" s="17"/>
       <c r="L167" s="17"/>
     </row>
     <row r="168">
+      <c r="K168" s="17"/>
       <c r="L168" s="17"/>
     </row>
     <row r="169">
+      <c r="K169" s="17"/>
       <c r="L169" s="17"/>
     </row>
     <row r="170">
+      <c r="K170" s="17"/>
       <c r="L170" s="17"/>
     </row>
     <row r="171">
+      <c r="K171" s="17"/>
       <c r="L171" s="17"/>
     </row>
     <row r="172">
+      <c r="K172" s="17"/>
       <c r="L172" s="17"/>
     </row>
     <row r="173">
+      <c r="K173" s="17"/>
       <c r="L173" s="17"/>
     </row>
     <row r="174">
+      <c r="K174" s="17"/>
       <c r="L174" s="17"/>
     </row>
     <row r="175">
+      <c r="K175" s="17"/>
       <c r="L175" s="17"/>
     </row>
     <row r="176">
+      <c r="K176" s="17"/>
       <c r="L176" s="17"/>
     </row>
     <row r="177">
+      <c r="K177" s="17"/>
       <c r="L177" s="17"/>
     </row>
     <row r="178">
+      <c r="K178" s="17"/>
       <c r="L178" s="17"/>
     </row>
     <row r="179">
+      <c r="K179" s="17"/>
       <c r="L179" s="17"/>
     </row>
     <row r="180">
+      <c r="K180" s="17"/>
       <c r="L180" s="17"/>
     </row>
     <row r="181">
+      <c r="K181" s="17"/>
       <c r="L181" s="17"/>
     </row>
     <row r="182">
+      <c r="K182" s="17"/>
       <c r="L182" s="17"/>
     </row>
     <row r="183">
+      <c r="K183" s="17"/>
       <c r="L183" s="17"/>
     </row>
     <row r="184">
+      <c r="K184" s="17"/>
       <c r="L184" s="17"/>
     </row>
     <row r="185">
+      <c r="K185" s="17"/>
       <c r="L185" s="17"/>
     </row>
     <row r="186">
+      <c r="K186" s="17"/>
       <c r="L186" s="17"/>
     </row>
     <row r="187">
+      <c r="K187" s="17"/>
       <c r="L187" s="17"/>
     </row>
     <row r="188">
+      <c r="K188" s="17"/>
       <c r="L188" s="17"/>
     </row>
     <row r="189">
+      <c r="K189" s="17"/>
       <c r="L189" s="17"/>
     </row>
     <row r="190">
+      <c r="K190" s="17"/>
       <c r="L190" s="17"/>
     </row>
     <row r="191">
+      <c r="K191" s="17"/>
       <c r="L191" s="17"/>
     </row>
     <row r="192">
+      <c r="K192" s="17"/>
       <c r="L192" s="17"/>
     </row>
     <row r="193">
+      <c r="K193" s="17"/>
       <c r="L193" s="17"/>
     </row>
     <row r="194">
+      <c r="K194" s="17"/>
       <c r="L194" s="17"/>
     </row>
     <row r="195">
+      <c r="K195" s="17"/>
       <c r="L195" s="17"/>
     </row>
     <row r="196">
+      <c r="K196" s="17"/>
       <c r="L196" s="17"/>
     </row>
     <row r="197">
+      <c r="K197" s="17"/>
       <c r="L197" s="17"/>
     </row>
     <row r="198">
+      <c r="K198" s="17"/>
       <c r="L198" s="17"/>
     </row>
     <row r="199">
+      <c r="K199" s="17"/>
       <c r="L199" s="17"/>
     </row>
     <row r="200">
+      <c r="K200" s="17"/>
       <c r="L200" s="17"/>
     </row>
     <row r="201">
+      <c r="K201" s="17"/>
       <c r="L201" s="17"/>
     </row>
     <row r="202">
+      <c r="K202" s="17"/>
       <c r="L202" s="17"/>
     </row>
     <row r="203">
+      <c r="K203" s="17"/>
       <c r="L203" s="17"/>
     </row>
     <row r="204">
+      <c r="K204" s="17"/>
       <c r="L204" s="17"/>
     </row>
     <row r="205">
+      <c r="K205" s="17"/>
       <c r="L205" s="17"/>
     </row>
     <row r="206">
+      <c r="K206" s="17"/>
       <c r="L206" s="17"/>
     </row>
     <row r="207">
+      <c r="K207" s="17"/>
       <c r="L207" s="17"/>
     </row>
     <row r="208">
+      <c r="K208" s="17"/>
       <c r="L208" s="17"/>
     </row>
     <row r="209">
+      <c r="K209" s="17"/>
       <c r="L209" s="17"/>
     </row>
     <row r="210">
+      <c r="K210" s="17"/>
       <c r="L210" s="17"/>
     </row>
     <row r="211">
+      <c r="K211" s="17"/>
       <c r="L211" s="17"/>
     </row>
     <row r="212">
+      <c r="K212" s="17"/>
       <c r="L212" s="17"/>
     </row>
     <row r="213">
+      <c r="K213" s="17"/>
       <c r="L213" s="17"/>
     </row>
     <row r="214">
+      <c r="K214" s="17"/>
       <c r="L214" s="17"/>
     </row>
     <row r="215">
+      <c r="K215" s="17"/>
       <c r="L215" s="17"/>
     </row>
     <row r="216">
+      <c r="K216" s="17"/>
       <c r="L216" s="17"/>
     </row>
     <row r="217">
+      <c r="K217" s="17"/>
       <c r="L217" s="17"/>
     </row>
     <row r="218">
+      <c r="K218" s="17"/>
       <c r="L218" s="17"/>
     </row>
     <row r="219">
+      <c r="K219" s="17"/>
       <c r="L219" s="17"/>
     </row>
     <row r="220">
+      <c r="K220" s="17"/>
       <c r="L220" s="17"/>
     </row>
     <row r="221">
+      <c r="K221" s="17"/>
       <c r="L221" s="17"/>
     </row>
     <row r="222">
+      <c r="K222" s="17"/>
       <c r="L222" s="17"/>
     </row>
     <row r="223">
+      <c r="K223" s="17"/>
       <c r="L223" s="17"/>
     </row>
     <row r="224">
+      <c r="K224" s="17"/>
       <c r="L224" s="17"/>
     </row>
     <row r="225">
+      <c r="K225" s="17"/>
       <c r="L225" s="17"/>
     </row>
     <row r="226">
+      <c r="K226" s="17"/>
       <c r="L226" s="17"/>
     </row>
     <row r="227">
+      <c r="K227" s="17"/>
       <c r="L227" s="17"/>
     </row>
     <row r="228">
+      <c r="K228" s="17"/>
       <c r="L228" s="17"/>
     </row>
     <row r="229">
+      <c r="K229" s="17"/>
       <c r="L229" s="17"/>
     </row>
     <row r="230">
+      <c r="K230" s="17"/>
       <c r="L230" s="17"/>
     </row>
     <row r="231">
+      <c r="K231" s="17"/>
       <c r="L231" s="17"/>
     </row>
     <row r="232">
+      <c r="K232" s="17"/>
       <c r="L232" s="17"/>
     </row>
     <row r="233">
+      <c r="K233" s="17"/>
       <c r="L233" s="17"/>
     </row>
     <row r="234">
+      <c r="K234" s="17"/>
       <c r="L234" s="17"/>
     </row>
     <row r="235">
+      <c r="K235" s="17"/>
       <c r="L235" s="17"/>
     </row>
     <row r="236">
+      <c r="K236" s="17"/>
       <c r="L236" s="17"/>
     </row>
     <row r="237">
+      <c r="K237" s="17"/>
       <c r="L237" s="17"/>
     </row>
     <row r="238">
+      <c r="K238" s="17"/>
       <c r="L238" s="17"/>
     </row>
     <row r="239">
+      <c r="K239" s="17"/>
       <c r="L239" s="17"/>
     </row>
     <row r="240">
+      <c r="K240" s="17"/>
       <c r="L240" s="17"/>
     </row>
     <row r="241">
+      <c r="K241" s="17"/>
       <c r="L241" s="17"/>
     </row>
     <row r="242">
+      <c r="K242" s="17"/>
       <c r="L242" s="17"/>
     </row>
     <row r="243">
+      <c r="K243" s="17"/>
       <c r="L243" s="17"/>
     </row>
     <row r="244">
+      <c r="K244" s="17"/>
       <c r="L244" s="17"/>
     </row>
     <row r="245">
+      <c r="K245" s="17"/>
       <c r="L245" s="17"/>
     </row>
     <row r="246">
+      <c r="K246" s="17"/>
       <c r="L246" s="17"/>
     </row>
     <row r="247">
+      <c r="K247" s="17"/>
       <c r="L247" s="17"/>
     </row>
     <row r="248">
+      <c r="K248" s="17"/>
       <c r="L248" s="17"/>
     </row>
     <row r="249">
+      <c r="K249" s="17"/>
       <c r="L249" s="17"/>
     </row>
     <row r="250">
+      <c r="K250" s="17"/>
       <c r="L250" s="17"/>
     </row>
     <row r="251">
+      <c r="K251" s="17"/>
       <c r="L251" s="17"/>
     </row>
     <row r="252">
+      <c r="K252" s="17"/>
       <c r="L252" s="17"/>
     </row>
     <row r="253">
+      <c r="K253" s="17"/>
       <c r="L253" s="17"/>
     </row>
     <row r="254">
+      <c r="K254" s="17"/>
       <c r="L254" s="17"/>
     </row>
     <row r="255">
+      <c r="K255" s="17"/>
       <c r="L255" s="17"/>
     </row>
     <row r="256">
+      <c r="K256" s="17"/>
       <c r="L256" s="17"/>
     </row>
     <row r="257">
+      <c r="K257" s="17"/>
       <c r="L257" s="17"/>
     </row>
     <row r="258">
+      <c r="K258" s="17"/>
       <c r="L258" s="17"/>
     </row>
     <row r="259">
+      <c r="K259" s="17"/>
       <c r="L259" s="17"/>
     </row>
     <row r="260">
+      <c r="K260" s="17"/>
       <c r="L260" s="17"/>
     </row>
     <row r="261">
+      <c r="K261" s="17"/>
       <c r="L261" s="17"/>
     </row>
     <row r="262">
+      <c r="K262" s="17"/>
       <c r="L262" s="17"/>
     </row>
     <row r="263">
+      <c r="K263" s="17"/>
       <c r="L263" s="17"/>
     </row>
     <row r="264">
+      <c r="K264" s="17"/>
       <c r="L264" s="17"/>
     </row>
     <row r="265">
+      <c r="K265" s="17"/>
       <c r="L265" s="17"/>
     </row>
     <row r="266">
+      <c r="K266" s="17"/>
       <c r="L266" s="17"/>
     </row>
     <row r="267">
+      <c r="K267" s="17"/>
       <c r="L267" s="17"/>
     </row>
     <row r="268">
+      <c r="K268" s="17"/>
       <c r="L268" s="17"/>
     </row>
     <row r="269">
+      <c r="K269" s="17"/>
       <c r="L269" s="17"/>
     </row>
     <row r="270">
+      <c r="K270" s="17"/>
       <c r="L270" s="17"/>
     </row>
     <row r="271">
+      <c r="K271" s="17"/>
       <c r="L271" s="17"/>
     </row>
     <row r="272">
+      <c r="K272" s="17"/>
       <c r="L272" s="17"/>
     </row>
     <row r="273">
+      <c r="K273" s="17"/>
       <c r="L273" s="17"/>
     </row>
     <row r="274">
+      <c r="K274" s="17"/>
       <c r="L274" s="17"/>
     </row>
     <row r="275">
+      <c r="K275" s="17"/>
       <c r="L275" s="17"/>
     </row>
     <row r="276">
+      <c r="K276" s="17"/>
       <c r="L276" s="17"/>
     </row>
     <row r="277">
+      <c r="K277" s="17"/>
       <c r="L277" s="17"/>
     </row>
     <row r="278">
+      <c r="K278" s="17"/>
       <c r="L278" s="17"/>
     </row>
     <row r="279">
+      <c r="K279" s="17"/>
       <c r="L279" s="17"/>
     </row>
     <row r="280">
+      <c r="K280" s="17"/>
       <c r="L280" s="17"/>
     </row>
     <row r="281">
+      <c r="K281" s="17"/>
       <c r="L281" s="17"/>
     </row>
     <row r="282">
+      <c r="K282" s="17"/>
       <c r="L282" s="17"/>
     </row>
     <row r="283">
+      <c r="K283" s="17"/>
       <c r="L283" s="17"/>
     </row>
     <row r="284">
+      <c r="K284" s="17"/>
       <c r="L284" s="17"/>
     </row>
     <row r="285">
+      <c r="K285" s="17"/>
       <c r="L285" s="17"/>
     </row>
     <row r="286">
+      <c r="K286" s="17"/>
       <c r="L286" s="17"/>
     </row>
     <row r="287">
+      <c r="K287" s="17"/>
       <c r="L287" s="17"/>
     </row>
     <row r="288">
+      <c r="K288" s="17"/>
       <c r="L288" s="17"/>
     </row>
     <row r="289">
+      <c r="K289" s="17"/>
       <c r="L289" s="17"/>
     </row>
     <row r="290">
+      <c r="K290" s="17"/>
       <c r="L290" s="17"/>
     </row>
     <row r="291">
+      <c r="K291" s="17"/>
       <c r="L291" s="17"/>
     </row>
     <row r="292">
+      <c r="K292" s="17"/>
       <c r="L292" s="17"/>
     </row>
     <row r="293">
+      <c r="K293" s="17"/>
       <c r="L293" s="17"/>
     </row>
     <row r="294">
+      <c r="K294" s="17"/>
       <c r="L294" s="17"/>
     </row>
     <row r="295">
+      <c r="K295" s="17"/>
       <c r="L295" s="17"/>
     </row>
     <row r="296">
+      <c r="K296" s="17"/>
       <c r="L296" s="17"/>
     </row>
     <row r="297">
+      <c r="K297" s="17"/>
       <c r="L297" s="17"/>
     </row>
     <row r="298">
+      <c r="K298" s="17"/>
       <c r="L298" s="17"/>
     </row>
     <row r="299">
+      <c r="K299" s="17"/>
       <c r="L299" s="17"/>
     </row>
     <row r="300">
+      <c r="K300" s="17"/>
       <c r="L300" s="17"/>
     </row>
     <row r="301">
+      <c r="K301" s="17"/>
       <c r="L301" s="17"/>
     </row>
     <row r="302">
+      <c r="K302" s="17"/>
       <c r="L302" s="17"/>
     </row>
     <row r="303">
+      <c r="K303" s="17"/>
       <c r="L303" s="17"/>
     </row>
     <row r="304">
+      <c r="K304" s="17"/>
       <c r="L304" s="17"/>
     </row>
     <row r="305">
+      <c r="K305" s="17"/>
       <c r="L305" s="17"/>
     </row>
     <row r="306">
+      <c r="K306" s="17"/>
       <c r="L306" s="17"/>
     </row>
     <row r="307">
+      <c r="K307" s="17"/>
       <c r="L307" s="17"/>
     </row>
     <row r="308">
+      <c r="K308" s="17"/>
       <c r="L308" s="17"/>
     </row>
     <row r="309">
+      <c r="K309" s="17"/>
       <c r="L309" s="17"/>
     </row>
     <row r="310">
+      <c r="K310" s="17"/>
       <c r="L310" s="17"/>
     </row>
     <row r="311">
+      <c r="K311" s="17"/>
       <c r="L311" s="17"/>
     </row>
     <row r="312">
+      <c r="K312" s="17"/>
       <c r="L312" s="17"/>
     </row>
     <row r="313">
+      <c r="K313" s="17"/>
       <c r="L313" s="17"/>
     </row>
     <row r="314">
+      <c r="K314" s="17"/>
       <c r="L314" s="17"/>
     </row>
     <row r="315">
+      <c r="K315" s="17"/>
       <c r="L315" s="17"/>
     </row>
     <row r="316">
+      <c r="K316" s="17"/>
       <c r="L316" s="17"/>
     </row>
     <row r="317">
+      <c r="K317" s="17"/>
       <c r="L317" s="17"/>
     </row>
     <row r="318">
+      <c r="K318" s="17"/>
       <c r="L318" s="17"/>
     </row>
     <row r="319">
+      <c r="K319" s="17"/>
       <c r="L319" s="17"/>
     </row>
     <row r="320">
+      <c r="K320" s="17"/>
       <c r="L320" s="17"/>
     </row>
     <row r="321">
+      <c r="K321" s="17"/>
       <c r="L321" s="17"/>
     </row>
     <row r="322">
+      <c r="K322" s="17"/>
       <c r="L322" s="17"/>
     </row>
     <row r="323">
+      <c r="K323" s="17"/>
       <c r="L323" s="17"/>
     </row>
     <row r="324">
+      <c r="K324" s="17"/>
       <c r="L324" s="17"/>
     </row>
     <row r="325">
+      <c r="K325" s="17"/>
       <c r="L325" s="17"/>
     </row>
     <row r="326">
+      <c r="K326" s="17"/>
       <c r="L326" s="17"/>
     </row>
     <row r="327">
+      <c r="K327" s="17"/>
       <c r="L327" s="17"/>
     </row>
     <row r="328">
+      <c r="K328" s="17"/>
       <c r="L328" s="17"/>
     </row>
     <row r="329">
+      <c r="K329" s="17"/>
       <c r="L329" s="17"/>
     </row>
     <row r="330">
+      <c r="K330" s="17"/>
       <c r="L330" s="17"/>
     </row>
     <row r="331">
+      <c r="K331" s="17"/>
       <c r="L331" s="17"/>
     </row>
     <row r="332">
+      <c r="K332" s="17"/>
       <c r="L332" s="17"/>
     </row>
     <row r="333">
+      <c r="K333" s="17"/>
       <c r="L333" s="17"/>
     </row>
     <row r="334">
+      <c r="K334" s="17"/>
       <c r="L334" s="17"/>
     </row>
     <row r="335">
+      <c r="K335" s="17"/>
       <c r="L335" s="17"/>
     </row>
     <row r="336">
+      <c r="K336" s="17"/>
       <c r="L336" s="17"/>
     </row>
     <row r="337">
+      <c r="K337" s="17"/>
       <c r="L337" s="17"/>
     </row>
     <row r="338">
+      <c r="K338" s="17"/>
       <c r="L338" s="17"/>
     </row>
     <row r="339">
+      <c r="K339" s="17"/>
       <c r="L339" s="17"/>
     </row>
     <row r="340">
+      <c r="K340" s="17"/>
       <c r="L340" s="17"/>
     </row>
     <row r="341">
+      <c r="K341" s="17"/>
       <c r="L341" s="17"/>
     </row>
     <row r="342">
+      <c r="K342" s="17"/>
       <c r="L342" s="17"/>
     </row>
     <row r="343">
+      <c r="K343" s="17"/>
       <c r="L343" s="17"/>
     </row>
     <row r="344">
+      <c r="K344" s="17"/>
       <c r="L344" s="17"/>
     </row>
     <row r="345">
+      <c r="K345" s="17"/>
       <c r="L345" s="17"/>
     </row>
     <row r="346">
+      <c r="K346" s="17"/>
       <c r="L346" s="17"/>
     </row>
     <row r="347">
+      <c r="K347" s="17"/>
       <c r="L347" s="17"/>
     </row>
     <row r="348">
+      <c r="K348" s="17"/>
       <c r="L348" s="17"/>
     </row>
     <row r="349">
+      <c r="K349" s="17"/>
       <c r="L349" s="17"/>
     </row>
     <row r="350">
+      <c r="K350" s="17"/>
       <c r="L350" s="17"/>
     </row>
     <row r="351">
+      <c r="K351" s="17"/>
       <c r="L351" s="17"/>
     </row>
     <row r="352">
+      <c r="K352" s="17"/>
       <c r="L352" s="17"/>
     </row>
     <row r="353">
+      <c r="K353" s="17"/>
       <c r="L353" s="17"/>
     </row>
     <row r="354">
+      <c r="K354" s="17"/>
       <c r="L354" s="17"/>
     </row>
     <row r="355">
+      <c r="K355" s="17"/>
       <c r="L355" s="17"/>
     </row>
     <row r="356">
+      <c r="K356" s="17"/>
       <c r="L356" s="17"/>
     </row>
     <row r="357">
+      <c r="K357" s="17"/>
       <c r="L357" s="17"/>
     </row>
     <row r="358">
+      <c r="K358" s="17"/>
       <c r="L358" s="17"/>
     </row>
     <row r="359">
+      <c r="K359" s="17"/>
       <c r="L359" s="17"/>
     </row>
     <row r="360">
+      <c r="K360" s="17"/>
       <c r="L360" s="17"/>
     </row>
     <row r="361">
+      <c r="K361" s="17"/>
       <c r="L361" s="17"/>
     </row>
     <row r="362">
+      <c r="K362" s="17"/>
       <c r="L362" s="17"/>
     </row>
     <row r="363">
+      <c r="K363" s="17"/>
       <c r="L363" s="17"/>
     </row>
     <row r="364">
+      <c r="K364" s="17"/>
       <c r="L364" s="17"/>
     </row>
     <row r="365">
+      <c r="K365" s="17"/>
       <c r="L365" s="17"/>
     </row>
     <row r="366">
+      <c r="K366" s="17"/>
       <c r="L366" s="17"/>
     </row>
     <row r="367">
+      <c r="K367" s="17"/>
       <c r="L367" s="17"/>
     </row>
     <row r="368">
+      <c r="K368" s="17"/>
       <c r="L368" s="17"/>
     </row>
     <row r="369">
+      <c r="K369" s="17"/>
       <c r="L369" s="17"/>
     </row>
     <row r="370">
+      <c r="K370" s="17"/>
       <c r="L370" s="17"/>
     </row>
     <row r="371">
+      <c r="K371" s="17"/>
       <c r="L371" s="17"/>
     </row>
     <row r="372">
+      <c r="K372" s="17"/>
       <c r="L372" s="17"/>
     </row>
     <row r="373">
+      <c r="K373" s="17"/>
       <c r="L373" s="17"/>
     </row>
     <row r="374">
+      <c r="K374" s="17"/>
       <c r="L374" s="17"/>
     </row>
     <row r="375">
+      <c r="K375" s="17"/>
       <c r="L375" s="17"/>
     </row>
     <row r="376">
+      <c r="K376" s="17"/>
       <c r="L376" s="17"/>
     </row>
     <row r="377">
+      <c r="K377" s="17"/>
       <c r="L377" s="17"/>
     </row>
     <row r="378">
+      <c r="K378" s="17"/>
       <c r="L378" s="17"/>
     </row>
     <row r="379">
+      <c r="K379" s="17"/>
       <c r="L379" s="17"/>
     </row>
     <row r="380">
+      <c r="K380" s="17"/>
       <c r="L380" s="17"/>
     </row>
     <row r="381">
+      <c r="K381" s="17"/>
       <c r="L381" s="17"/>
     </row>
     <row r="382">
+      <c r="K382" s="17"/>
       <c r="L382" s="17"/>
     </row>
     <row r="383">
+      <c r="K383" s="17"/>
       <c r="L383" s="17"/>
     </row>
     <row r="384">
+      <c r="K384" s="17"/>
       <c r="L384" s="17"/>
     </row>
     <row r="385">
+      <c r="K385" s="17"/>
       <c r="L385" s="17"/>
     </row>
     <row r="386">
+      <c r="K386" s="17"/>
       <c r="L386" s="17"/>
     </row>
     <row r="387">
+      <c r="K387" s="17"/>
       <c r="L387" s="17"/>
     </row>
     <row r="388">
+      <c r="K388" s="17"/>
       <c r="L388" s="17"/>
     </row>
     <row r="389">
+      <c r="K389" s="17"/>
       <c r="L389" s="17"/>
     </row>
     <row r="390">
+      <c r="K390" s="17"/>
       <c r="L390" s="17"/>
     </row>
     <row r="391">
+      <c r="K391" s="17"/>
       <c r="L391" s="17"/>
     </row>
     <row r="392">
+      <c r="K392" s="17"/>
       <c r="L392" s="17"/>
     </row>
     <row r="393">
+      <c r="K393" s="17"/>
       <c r="L393" s="17"/>
     </row>
     <row r="394">
+      <c r="K394" s="17"/>
       <c r="L394" s="17"/>
     </row>
     <row r="395">
+      <c r="K395" s="17"/>
       <c r="L395" s="17"/>
     </row>
     <row r="396">
+      <c r="K396" s="17"/>
       <c r="L396" s="17"/>
     </row>
     <row r="397">
+      <c r="K397" s="17"/>
       <c r="L397" s="17"/>
     </row>
     <row r="398">
+      <c r="K398" s="17"/>
       <c r="L398" s="17"/>
     </row>
     <row r="399">
+      <c r="K399" s="17"/>
       <c r="L399" s="17"/>
     </row>
     <row r="400">
+      <c r="K400" s="17"/>
       <c r="L400" s="17"/>
     </row>
     <row r="401">
+      <c r="K401" s="17"/>
       <c r="L401" s="17"/>
     </row>
     <row r="402">
+      <c r="K402" s="17"/>
       <c r="L402" s="17"/>
     </row>
     <row r="403">
+      <c r="K403" s="17"/>
       <c r="L403" s="17"/>
     </row>
     <row r="404">
+      <c r="K404" s="17"/>
       <c r="L404" s="17"/>
     </row>
     <row r="405">
+      <c r="K405" s="17"/>
       <c r="L405" s="17"/>
     </row>
     <row r="406">
+      <c r="K406" s="17"/>
       <c r="L406" s="17"/>
     </row>
     <row r="407">
+      <c r="K407" s="17"/>
       <c r="L407" s="17"/>
     </row>
     <row r="408">
+      <c r="K408" s="17"/>
       <c r="L408" s="17"/>
     </row>
     <row r="409">
+      <c r="K409" s="17"/>
       <c r="L409" s="17"/>
     </row>
     <row r="410">
+      <c r="K410" s="17"/>
       <c r="L410" s="17"/>
     </row>
     <row r="411">
+      <c r="K411" s="17"/>
       <c r="L411" s="17"/>
     </row>
     <row r="412">
+      <c r="K412" s="17"/>
       <c r="L412" s="17"/>
     </row>
     <row r="413">
+      <c r="K413" s="17"/>
       <c r="L413" s="17"/>
     </row>
     <row r="414">
+      <c r="K414" s="17"/>
       <c r="L414" s="17"/>
     </row>
     <row r="415">
+      <c r="K415" s="17"/>
       <c r="L415" s="17"/>
     </row>
     <row r="416">
+      <c r="K416" s="17"/>
       <c r="L416" s="17"/>
     </row>
     <row r="417">
+      <c r="K417" s="17"/>
       <c r="L417" s="17"/>
     </row>
     <row r="418">
+      <c r="K418" s="17"/>
       <c r="L418" s="17"/>
     </row>
     <row r="419">
+      <c r="K419" s="17"/>
       <c r="L419" s="17"/>
     </row>
     <row r="420">
+      <c r="K420" s="17"/>
       <c r="L420" s="17"/>
     </row>
     <row r="421">
+      <c r="K421" s="17"/>
       <c r="L421" s="17"/>
     </row>
     <row r="422">
+      <c r="K422" s="17"/>
       <c r="L422" s="17"/>
     </row>
     <row r="423">
+      <c r="K423" s="17"/>
       <c r="L423" s="17"/>
     </row>
     <row r="424">
+      <c r="K424" s="17"/>
       <c r="L424" s="17"/>
     </row>
     <row r="425">
+      <c r="K425" s="17"/>
       <c r="L425" s="17"/>
     </row>
     <row r="426">
+      <c r="K426" s="17"/>
       <c r="L426" s="17"/>
     </row>
     <row r="427">
+      <c r="K427" s="17"/>
       <c r="L427" s="17"/>
     </row>
     <row r="428">
+      <c r="K428" s="17"/>
       <c r="L428" s="17"/>
     </row>
     <row r="429">
+      <c r="K429" s="17"/>
       <c r="L429" s="17"/>
     </row>
     <row r="430">
+      <c r="K430" s="17"/>
       <c r="L430" s="17"/>
     </row>
     <row r="431">
+      <c r="K431" s="17"/>
       <c r="L431" s="17"/>
     </row>
     <row r="432">
+      <c r="K432" s="17"/>
       <c r="L432" s="17"/>
     </row>
     <row r="433">
+      <c r="K433" s="17"/>
       <c r="L433" s="17"/>
     </row>
     <row r="434">
+      <c r="K434" s="17"/>
       <c r="L434" s="17"/>
     </row>
     <row r="435">
+      <c r="K435" s="17"/>
       <c r="L435" s="17"/>
     </row>
     <row r="436">
+      <c r="K436" s="17"/>
       <c r="L436" s="17"/>
     </row>
     <row r="437">
+      <c r="K437" s="17"/>
       <c r="L437" s="17"/>
     </row>
     <row r="438">
+      <c r="K438" s="17"/>
       <c r="L438" s="17"/>
     </row>
     <row r="439">
+      <c r="K439" s="17"/>
       <c r="L439" s="17"/>
     </row>
     <row r="440">
+      <c r="K440" s="17"/>
       <c r="L440" s="17"/>
     </row>
     <row r="441">
+      <c r="K441" s="17"/>
       <c r="L441" s="17"/>
     </row>
     <row r="442">
+      <c r="K442" s="17"/>
       <c r="L442" s="17"/>
     </row>
     <row r="443">
+      <c r="K443" s="17"/>
       <c r="L443" s="17"/>
     </row>
     <row r="444">
+      <c r="K444" s="17"/>
       <c r="L444" s="17"/>
     </row>
     <row r="445">
+      <c r="K445" s="17"/>
       <c r="L445" s="17"/>
     </row>
     <row r="446">
+      <c r="K446" s="17"/>
       <c r="L446" s="17"/>
     </row>
     <row r="447">
+      <c r="K447" s="17"/>
       <c r="L447" s="17"/>
     </row>
     <row r="448">
+      <c r="K448" s="17"/>
       <c r="L448" s="17"/>
     </row>
     <row r="449">
+      <c r="K449" s="17"/>
       <c r="L449" s="17"/>
     </row>
     <row r="450">
+      <c r="K450" s="17"/>
       <c r="L450" s="17"/>
     </row>
     <row r="451">
+      <c r="K451" s="17"/>
       <c r="L451" s="17"/>
     </row>
     <row r="452">
+      <c r="K452" s="17"/>
       <c r="L452" s="17"/>
     </row>
     <row r="453">
+      <c r="K453" s="17"/>
       <c r="L453" s="17"/>
     </row>
     <row r="454">
+      <c r="K454" s="17"/>
       <c r="L454" s="17"/>
     </row>
     <row r="455">
+      <c r="K455" s="17"/>
       <c r="L455" s="17"/>
     </row>
     <row r="456">
+      <c r="K456" s="17"/>
       <c r="L456" s="17"/>
     </row>
     <row r="457">
+      <c r="K457" s="17"/>
       <c r="L457" s="17"/>
     </row>
     <row r="458">
+      <c r="K458" s="17"/>
       <c r="L458" s="17"/>
     </row>
     <row r="459">
+      <c r="K459" s="17"/>
       <c r="L459" s="17"/>
     </row>
     <row r="460">
+      <c r="K460" s="17"/>
       <c r="L460" s="17"/>
     </row>
     <row r="461">
+      <c r="K461" s="17"/>
       <c r="L461" s="17"/>
     </row>
     <row r="462">
+      <c r="K462" s="17"/>
       <c r="L462" s="17"/>
     </row>
     <row r="463">
+      <c r="K463" s="17"/>
       <c r="L463" s="17"/>
     </row>
     <row r="464">
+      <c r="K464" s="17"/>
       <c r="L464" s="17"/>
     </row>
     <row r="465">
+      <c r="K465" s="17"/>
       <c r="L465" s="17"/>
     </row>
     <row r="466">
+      <c r="K466" s="17"/>
       <c r="L466" s="17"/>
     </row>
     <row r="467">
+      <c r="K467" s="17"/>
       <c r="L467" s="17"/>
     </row>
     <row r="468">
+      <c r="K468" s="17"/>
       <c r="L468" s="17"/>
     </row>
     <row r="469">
+      <c r="K469" s="17"/>
       <c r="L469" s="17"/>
     </row>
     <row r="470">
+      <c r="K470" s="17"/>
       <c r="L470" s="17"/>
     </row>
     <row r="471">
+      <c r="K471" s="17"/>
       <c r="L471" s="17"/>
     </row>
     <row r="472">
+      <c r="K472" s="17"/>
       <c r="L472" s="17"/>
     </row>
     <row r="473">
+      <c r="K473" s="17"/>
       <c r="L473" s="17"/>
     </row>
     <row r="474">
+      <c r="K474" s="17"/>
       <c r="L474" s="17"/>
     </row>
     <row r="475">
+      <c r="K475" s="17"/>
       <c r="L475" s="17"/>
     </row>
     <row r="476">
+      <c r="K476" s="17"/>
       <c r="L476" s="17"/>
     </row>
     <row r="477">
+      <c r="K477" s="17"/>
       <c r="L477" s="17"/>
     </row>
     <row r="478">
+      <c r="K478" s="17"/>
       <c r="L478" s="17"/>
     </row>
     <row r="479">
+      <c r="K479" s="17"/>
       <c r="L479" s="17"/>
     </row>
     <row r="480">
+      <c r="K480" s="17"/>
       <c r="L480" s="17"/>
     </row>
     <row r="481">
+      <c r="K481" s="17"/>
       <c r="L481" s="17"/>
     </row>
     <row r="482">
+      <c r="K482" s="17"/>
       <c r="L482" s="17"/>
     </row>
     <row r="483">
+      <c r="K483" s="17"/>
       <c r="L483" s="17"/>
     </row>
     <row r="484">
+      <c r="K484" s="17"/>
       <c r="L484" s="17"/>
     </row>
     <row r="485">
+      <c r="K485" s="17"/>
       <c r="L485" s="17"/>
     </row>
     <row r="486">
+      <c r="K486" s="17"/>
       <c r="L486" s="17"/>
     </row>
     <row r="487">
+      <c r="K487" s="17"/>
       <c r="L487" s="17"/>
     </row>
     <row r="488">
+      <c r="K488" s="17"/>
       <c r="L488" s="17"/>
     </row>
     <row r="489">
+      <c r="K489" s="17"/>
       <c r="L489" s="17"/>
     </row>
     <row r="490">
+      <c r="K490" s="17"/>
       <c r="L490" s="17"/>
     </row>
     <row r="491">
+      <c r="K491" s="17"/>
       <c r="L491" s="17"/>
     </row>
     <row r="492">
+      <c r="K492" s="17"/>
       <c r="L492" s="17"/>
     </row>
     <row r="493">
+      <c r="K493" s="17"/>
       <c r="L493" s="17"/>
     </row>
     <row r="494">
+      <c r="K494" s="17"/>
       <c r="L494" s="17"/>
     </row>
     <row r="495">
+      <c r="K495" s="17"/>
       <c r="L495" s="17"/>
     </row>
     <row r="496">
+      <c r="K496" s="17"/>
       <c r="L496" s="17"/>
     </row>
     <row r="497">
+      <c r="K497" s="17"/>
       <c r="L497" s="17"/>
     </row>
     <row r="498">
+      <c r="K498" s="17"/>
       <c r="L498" s="17"/>
     </row>
     <row r="499">
+      <c r="K499" s="17"/>
       <c r="L499" s="17"/>
     </row>
     <row r="500">
+      <c r="K500" s="17"/>
       <c r="L500" s="17"/>
     </row>
     <row r="501">
+      <c r="K501" s="17"/>
       <c r="L501" s="17"/>
     </row>
     <row r="502">
+      <c r="K502" s="17"/>
       <c r="L502" s="17"/>
     </row>
     <row r="503">
+      <c r="K503" s="17"/>
       <c r="L503" s="17"/>
     </row>
     <row r="504">
+      <c r="K504" s="17"/>
       <c r="L504" s="17"/>
     </row>
     <row r="505">
+      <c r="K505" s="17"/>
       <c r="L505" s="17"/>
     </row>
     <row r="506">
+      <c r="K506" s="17"/>
       <c r="L506" s="17"/>
     </row>
     <row r="507">
+      <c r="K507" s="17"/>
       <c r="L507" s="17"/>
     </row>
     <row r="508">
+      <c r="K508" s="17"/>
       <c r="L508" s="17"/>
     </row>
     <row r="509">
+      <c r="K509" s="17"/>
       <c r="L509" s="17"/>
     </row>
     <row r="510">
+      <c r="K510" s="17"/>
       <c r="L510" s="17"/>
     </row>
     <row r="511">
+      <c r="K511" s="17"/>
       <c r="L511" s="17"/>
     </row>
     <row r="512">
+      <c r="K512" s="17"/>
       <c r="L512" s="17"/>
     </row>
     <row r="513">
+      <c r="K513" s="17"/>
       <c r="L513" s="17"/>
     </row>
     <row r="514">
+      <c r="K514" s="17"/>
       <c r="L514" s="17"/>
     </row>
     <row r="515">
+      <c r="K515" s="17"/>
       <c r="L515" s="17"/>
     </row>
     <row r="516">
+      <c r="K516" s="17"/>
       <c r="L516" s="17"/>
     </row>
     <row r="517">
+      <c r="K517" s="17"/>
       <c r="L517" s="17"/>
     </row>
     <row r="518">
+      <c r="K518" s="17"/>
       <c r="L518" s="17"/>
     </row>
     <row r="519">
+      <c r="K519" s="17"/>
       <c r="L519" s="17"/>
     </row>
     <row r="520">
+      <c r="K520" s="17"/>
       <c r="L520" s="17"/>
     </row>
     <row r="521">
+      <c r="K521" s="17"/>
       <c r="L521" s="17"/>
     </row>
     <row r="522">
+      <c r="K522" s="17"/>
       <c r="L522" s="17"/>
     </row>
     <row r="523">
+      <c r="K523" s="17"/>
       <c r="L523" s="17"/>
     </row>
     <row r="524">
+      <c r="K524" s="17"/>
       <c r="L524" s="17"/>
     </row>
     <row r="525">
+      <c r="K525" s="17"/>
       <c r="L525" s="17"/>
     </row>
     <row r="526">
+      <c r="K526" s="17"/>
       <c r="L526" s="17"/>
     </row>
     <row r="527">
+      <c r="K527" s="17"/>
       <c r="L527" s="17"/>
     </row>
     <row r="528">
+      <c r="K528" s="17"/>
       <c r="L528" s="17"/>
     </row>
     <row r="529">
+      <c r="K529" s="17"/>
       <c r="L529" s="17"/>
     </row>
     <row r="530">
+      <c r="K530" s="17"/>
       <c r="L530" s="17"/>
     </row>
     <row r="531">
+      <c r="K531" s="17"/>
       <c r="L531" s="17"/>
     </row>
     <row r="532">
+      <c r="K532" s="17"/>
       <c r="L532" s="17"/>
     </row>
     <row r="533">
+      <c r="K533" s="17"/>
       <c r="L533" s="17"/>
     </row>
     <row r="534">
+      <c r="K534" s="17"/>
       <c r="L534" s="17"/>
     </row>
     <row r="535">
+      <c r="K535" s="17"/>
       <c r="L535" s="17"/>
     </row>
     <row r="536">
+      <c r="K536" s="17"/>
       <c r="L536" s="17"/>
     </row>
     <row r="537">
+      <c r="K537" s="17"/>
       <c r="L537" s="17"/>
     </row>
     <row r="538">
+      <c r="K538" s="17"/>
       <c r="L538" s="17"/>
     </row>
     <row r="539">
+      <c r="K539" s="17"/>
       <c r="L539" s="17"/>
     </row>
     <row r="540">
+      <c r="K540" s="17"/>
       <c r="L540" s="17"/>
     </row>
     <row r="541">
+      <c r="K541" s="17"/>
       <c r="L541" s="17"/>
     </row>
     <row r="542">
+      <c r="K542" s="17"/>
       <c r="L542" s="17"/>
     </row>
     <row r="543">
+      <c r="K543" s="17"/>
       <c r="L543" s="17"/>
     </row>
     <row r="544">
+      <c r="K544" s="17"/>
       <c r="L544" s="17"/>
     </row>
     <row r="545">
+      <c r="K545" s="17"/>
       <c r="L545" s="17"/>
     </row>
     <row r="546">
+      <c r="K546" s="17"/>
       <c r="L546" s="17"/>
     </row>
     <row r="547">
+      <c r="K547" s="17"/>
       <c r="L547" s="17"/>
     </row>
     <row r="548">
+      <c r="K548" s="17"/>
       <c r="L548" s="17"/>
     </row>
     <row r="549">
+      <c r="K549" s="17"/>
       <c r="L549" s="17"/>
     </row>
     <row r="550">
+      <c r="K550" s="17"/>
       <c r="L550" s="17"/>
     </row>
     <row r="551">
+      <c r="K551" s="17"/>
       <c r="L551" s="17"/>
     </row>
     <row r="552">
+      <c r="K552" s="17"/>
       <c r="L552" s="17"/>
     </row>
     <row r="553">
+      <c r="K553" s="17"/>
       <c r="L553" s="17"/>
     </row>
     <row r="554">
+      <c r="K554" s="17"/>
       <c r="L554" s="17"/>
     </row>
     <row r="555">
+      <c r="K555" s="17"/>
       <c r="L555" s="17"/>
     </row>
     <row r="556">
+      <c r="K556" s="17"/>
       <c r="L556" s="17"/>
     </row>
     <row r="557">
+      <c r="K557" s="17"/>
       <c r="L557" s="17"/>
     </row>
     <row r="558">
+      <c r="K558" s="17"/>
       <c r="L558" s="17"/>
     </row>
     <row r="559">
+      <c r="K559" s="17"/>
       <c r="L559" s="17"/>
     </row>
     <row r="560">
+      <c r="K560" s="17"/>
       <c r="L560" s="17"/>
     </row>
     <row r="561">
+      <c r="K561" s="17"/>
       <c r="L561" s="17"/>
     </row>
     <row r="562">
+      <c r="K562" s="17"/>
       <c r="L562" s="17"/>
     </row>
     <row r="563">
+      <c r="K563" s="17"/>
       <c r="L563" s="17"/>
     </row>
     <row r="564">
+      <c r="K564" s="17"/>
       <c r="L564" s="17"/>
     </row>
     <row r="565">
+      <c r="K565" s="17"/>
       <c r="L565" s="17"/>
     </row>
     <row r="566">
+      <c r="K566" s="17"/>
       <c r="L566" s="17"/>
     </row>
     <row r="567">
+      <c r="K567" s="17"/>
       <c r="L567" s="17"/>
     </row>
     <row r="568">
+      <c r="K568" s="17"/>
       <c r="L568" s="17"/>
     </row>
     <row r="569">
+      <c r="K569" s="17"/>
       <c r="L569" s="17"/>
     </row>
     <row r="570">
+      <c r="K570" s="17"/>
       <c r="L570" s="17"/>
     </row>
     <row r="571">
+      <c r="K571" s="17"/>
       <c r="L571" s="17"/>
     </row>
     <row r="572">
+      <c r="K572" s="17"/>
       <c r="L572" s="17"/>
     </row>
     <row r="573">
+      <c r="K573" s="17"/>
       <c r="L573" s="17"/>
     </row>
     <row r="574">
+      <c r="K574" s="17"/>
       <c r="L574" s="17"/>
     </row>
     <row r="575">
+      <c r="K575" s="17"/>
       <c r="L575" s="17"/>
     </row>
     <row r="576">
+      <c r="K576" s="17"/>
       <c r="L576" s="17"/>
     </row>
     <row r="577">
+      <c r="K577" s="17"/>
       <c r="L577" s="17"/>
     </row>
     <row r="578">
+      <c r="K578" s="17"/>
       <c r="L578" s="17"/>
     </row>
     <row r="579">
+      <c r="K579" s="17"/>
       <c r="L579" s="17"/>
     </row>
     <row r="580">
+      <c r="K580" s="17"/>
       <c r="L580" s="17"/>
     </row>
     <row r="581">
+      <c r="K581" s="17"/>
       <c r="L581" s="17"/>
     </row>
     <row r="582">
+      <c r="K582" s="17"/>
       <c r="L582" s="17"/>
     </row>
     <row r="583">
+      <c r="K583" s="17"/>
       <c r="L583" s="17"/>
     </row>
     <row r="584">
+      <c r="K584" s="17"/>
       <c r="L584" s="17"/>
     </row>
     <row r="585">
+      <c r="K585" s="17"/>
       <c r="L585" s="17"/>
     </row>
     <row r="586">
+      <c r="K586" s="17"/>
       <c r="L586" s="17"/>
     </row>
     <row r="587">
+      <c r="K587" s="17"/>
       <c r="L587" s="17"/>
     </row>
     <row r="588">
+      <c r="K588" s="17"/>
       <c r="L588" s="17"/>
     </row>
     <row r="589">
+      <c r="K589" s="17"/>
       <c r="L589" s="17"/>
     </row>
     <row r="590">
+      <c r="K590" s="17"/>
       <c r="L590" s="17"/>
     </row>
     <row r="591">
+      <c r="K591" s="17"/>
       <c r="L591" s="17"/>
     </row>
     <row r="592">
+      <c r="K592" s="17"/>
       <c r="L592" s="17"/>
     </row>
     <row r="593">
+      <c r="K593" s="17"/>
       <c r="L593" s="17"/>
     </row>
     <row r="594">
+      <c r="K594" s="17"/>
       <c r="L594" s="17"/>
     </row>
     <row r="595">
+      <c r="K595" s="17"/>
       <c r="L595" s="17"/>
     </row>
     <row r="596">
+      <c r="K596" s="17"/>
       <c r="L596" s="17"/>
     </row>
     <row r="597">
+      <c r="K597" s="17"/>
       <c r="L597" s="17"/>
     </row>
     <row r="598">
+      <c r="K598" s="17"/>
       <c r="L598" s="17"/>
     </row>
     <row r="599">
+      <c r="K599" s="17"/>
       <c r="L599" s="17"/>
     </row>
     <row r="600">
+      <c r="K600" s="17"/>
       <c r="L600" s="17"/>
     </row>
     <row r="601">
+      <c r="K601" s="17"/>
       <c r="L601" s="17"/>
     </row>
     <row r="602">
+      <c r="K602" s="17"/>
       <c r="L602" s="17"/>
     </row>
     <row r="603">
+      <c r="K603" s="17"/>
       <c r="L603" s="17"/>
     </row>
     <row r="604">
+      <c r="K604" s="17"/>
       <c r="L604" s="17"/>
     </row>
     <row r="605">
+      <c r="K605" s="17"/>
       <c r="L605" s="17"/>
     </row>
     <row r="606">
+      <c r="K606" s="17"/>
       <c r="L606" s="17"/>
     </row>
     <row r="607">
+      <c r="K607" s="17"/>
       <c r="L607" s="17"/>
     </row>
     <row r="608">
+      <c r="K608" s="17"/>
       <c r="L608" s="17"/>
     </row>
     <row r="609">
+      <c r="K609" s="17"/>
       <c r="L609" s="17"/>
     </row>
     <row r="610">
+      <c r="K610" s="17"/>
       <c r="L610" s="17"/>
     </row>
     <row r="611">
+      <c r="K611" s="17"/>
       <c r="L611" s="17"/>
     </row>
     <row r="612">
+      <c r="K612" s="17"/>
       <c r="L612" s="17"/>
     </row>
     <row r="613">
+      <c r="K613" s="17"/>
       <c r="L613" s="17"/>
     </row>
     <row r="614">
+      <c r="K614" s="17"/>
       <c r="L614" s="17"/>
     </row>
     <row r="615">
+      <c r="K615" s="17"/>
       <c r="L615" s="17"/>
     </row>
     <row r="616">
+      <c r="K616" s="17"/>
       <c r="L616" s="17"/>
     </row>
     <row r="617">
+      <c r="K617" s="17"/>
       <c r="L617" s="17"/>
     </row>
     <row r="618">
+      <c r="K618" s="17"/>
       <c r="L618" s="17"/>
     </row>
     <row r="619">
+      <c r="K619" s="17"/>
       <c r="L619" s="17"/>
     </row>
     <row r="620">
+      <c r="K620" s="17"/>
       <c r="L620" s="17"/>
     </row>
     <row r="621">
+      <c r="K621" s="17"/>
       <c r="L621" s="17"/>
     </row>
     <row r="622">
+      <c r="K622" s="17"/>
       <c r="L622" s="17"/>
     </row>
     <row r="623">
+      <c r="K623" s="17"/>
       <c r="L623" s="17"/>
     </row>
     <row r="624">
+      <c r="K624" s="17"/>
       <c r="L624" s="17"/>
     </row>
     <row r="625">
+      <c r="K625" s="17"/>
       <c r="L625" s="17"/>
     </row>
     <row r="626">
+      <c r="K626" s="17"/>
       <c r="L626" s="17"/>
     </row>
     <row r="627">
+      <c r="K627" s="17"/>
       <c r="L627" s="17"/>
     </row>
     <row r="628">
+      <c r="K628" s="17"/>
       <c r="L628" s="17"/>
     </row>
     <row r="629">
+      <c r="K629" s="17"/>
       <c r="L629" s="17"/>
     </row>
     <row r="630">
+      <c r="K630" s="17"/>
       <c r="L630" s="17"/>
     </row>
     <row r="631">
+      <c r="K631" s="17"/>
       <c r="L631" s="17"/>
     </row>
     <row r="632">
+      <c r="K632" s="17"/>
       <c r="L632" s="17"/>
     </row>
     <row r="633">
+      <c r="K633" s="17"/>
       <c r="L633" s="17"/>
     </row>
     <row r="634">
+      <c r="K634" s="17"/>
       <c r="L634" s="17"/>
     </row>
     <row r="635">
+      <c r="K635" s="17"/>
       <c r="L635" s="17"/>
     </row>
     <row r="636">
+      <c r="K636" s="17"/>
       <c r="L636" s="17"/>
     </row>
     <row r="637">
+      <c r="K637" s="17"/>
       <c r="L637" s="17"/>
     </row>
     <row r="638">
+      <c r="K638" s="17"/>
       <c r="L638" s="17"/>
     </row>
     <row r="639">
+      <c r="K639" s="17"/>
       <c r="L639" s="17"/>
     </row>
     <row r="640">
+      <c r="K640" s="17"/>
       <c r="L640" s="17"/>
     </row>
     <row r="641">
+      <c r="K641" s="17"/>
       <c r="L641" s="17"/>
     </row>
     <row r="642">
+      <c r="K642" s="17"/>
       <c r="L642" s="17"/>
     </row>
     <row r="643">
+      <c r="K643" s="17"/>
       <c r="L643" s="17"/>
     </row>
     <row r="644">
+      <c r="K644" s="17"/>
       <c r="L644" s="17"/>
     </row>
     <row r="645">
+      <c r="K645" s="17"/>
       <c r="L645" s="17"/>
     </row>
     <row r="646">
+      <c r="K646" s="17"/>
       <c r="L646" s="17"/>
     </row>
     <row r="647">
+      <c r="K647" s="17"/>
       <c r="L647" s="17"/>
     </row>
     <row r="648">
+      <c r="K648" s="17"/>
       <c r="L648" s="17"/>
     </row>
     <row r="649">
+      <c r="K649" s="17"/>
       <c r="L649" s="17"/>
     </row>
     <row r="650">
+      <c r="K650" s="17"/>
       <c r="L650" s="17"/>
     </row>
     <row r="651">
+      <c r="K651" s="17"/>
       <c r="L651" s="17"/>
     </row>
     <row r="652">
+      <c r="K652" s="17"/>
       <c r="L652" s="17"/>
     </row>
     <row r="653">
+      <c r="K653" s="17"/>
       <c r="L653" s="17"/>
     </row>
     <row r="654">
+      <c r="K654" s="17"/>
       <c r="L654" s="17"/>
     </row>
     <row r="655">
+      <c r="K655" s="17"/>
       <c r="L655" s="17"/>
     </row>
     <row r="656">
+      <c r="K656" s="17"/>
       <c r="L656" s="17"/>
     </row>
     <row r="657">
+      <c r="K657" s="17"/>
       <c r="L657" s="17"/>
     </row>
     <row r="658">
+      <c r="K658" s="17"/>
       <c r="L658" s="17"/>
     </row>
     <row r="659">
+      <c r="K659" s="17"/>
       <c r="L659" s="17"/>
     </row>
     <row r="660">
+      <c r="K660" s="17"/>
       <c r="L660" s="17"/>
     </row>
     <row r="661">
+      <c r="K661" s="17"/>
       <c r="L661" s="17"/>
     </row>
     <row r="662">
+      <c r="K662" s="17"/>
       <c r="L662" s="17"/>
     </row>
     <row r="663">
+      <c r="K663" s="17"/>
       <c r="L663" s="17"/>
     </row>
     <row r="664">
+      <c r="K664" s="17"/>
       <c r="L664" s="17"/>
     </row>
     <row r="665">
+      <c r="K665" s="17"/>
       <c r="L665" s="17"/>
     </row>
     <row r="666">
+      <c r="K666" s="17"/>
       <c r="L666" s="17"/>
     </row>
     <row r="667">
+      <c r="K667" s="17"/>
       <c r="L667" s="17"/>
     </row>
     <row r="668">
+      <c r="K668" s="17"/>
       <c r="L668" s="17"/>
     </row>
     <row r="669">
+      <c r="K669" s="17"/>
       <c r="L669" s="17"/>
     </row>
     <row r="670">
+      <c r="K670" s="17"/>
       <c r="L670" s="17"/>
     </row>
     <row r="671">
+      <c r="K671" s="17"/>
       <c r="L671" s="17"/>
     </row>
     <row r="672">
+      <c r="K672" s="17"/>
       <c r="L672" s="17"/>
     </row>
     <row r="673">
+      <c r="K673" s="17"/>
       <c r="L673" s="17"/>
     </row>
     <row r="674">
+      <c r="K674" s="17"/>
       <c r="L674" s="17"/>
     </row>
     <row r="675">
+      <c r="K675" s="17"/>
       <c r="L675" s="17"/>
     </row>
     <row r="676">
+      <c r="K676" s="17"/>
       <c r="L676" s="17"/>
     </row>
     <row r="677">
+      <c r="K677" s="17"/>
       <c r="L677" s="17"/>
     </row>
     <row r="678">
+      <c r="K678" s="17"/>
       <c r="L678" s="17"/>
     </row>
     <row r="679">
+      <c r="K679" s="17"/>
       <c r="L679" s="17"/>
     </row>
     <row r="680">
+      <c r="K680" s="17"/>
       <c r="L680" s="17"/>
     </row>
     <row r="681">
+      <c r="K681" s="17"/>
       <c r="L681" s="17"/>
     </row>
     <row r="682">
+      <c r="K682" s="17"/>
       <c r="L682" s="17"/>
     </row>
     <row r="683">
+      <c r="K683" s="17"/>
       <c r="L683" s="17"/>
     </row>
     <row r="684">
+      <c r="K684" s="17"/>
       <c r="L684" s="17"/>
     </row>
     <row r="685">
+      <c r="K685" s="17"/>
       <c r="L685" s="17"/>
     </row>
     <row r="686">
+      <c r="K686" s="17"/>
       <c r="L686" s="17"/>
     </row>
     <row r="687">
+      <c r="K687" s="17"/>
       <c r="L687" s="17"/>
     </row>
     <row r="688">
+      <c r="K688" s="17"/>
       <c r="L688" s="17"/>
     </row>
     <row r="689">
+      <c r="K689" s="17"/>
       <c r="L689" s="17"/>
     </row>
     <row r="690">
+      <c r="K690" s="17"/>
       <c r="L690" s="17"/>
     </row>
     <row r="691">
+      <c r="K691" s="17"/>
       <c r="L691" s="17"/>
     </row>
     <row r="692">
+      <c r="K692" s="17"/>
       <c r="L692" s="17"/>
     </row>
     <row r="693">
+      <c r="K693" s="17"/>
       <c r="L693" s="17"/>
     </row>
     <row r="694">
+      <c r="K694" s="17"/>
       <c r="L694" s="17"/>
     </row>
     <row r="695">
+      <c r="K695" s="17"/>
       <c r="L695" s="17"/>
     </row>
     <row r="696">
+      <c r="K696" s="17"/>
       <c r="L696" s="17"/>
     </row>
     <row r="697">
+      <c r="K697" s="17"/>
       <c r="L697" s="17"/>
     </row>
     <row r="698">
+      <c r="K698" s="17"/>
       <c r="L698" s="17"/>
     </row>
     <row r="699">
+      <c r="K699" s="17"/>
       <c r="L699" s="17"/>
     </row>
     <row r="700">
+      <c r="K700" s="17"/>
       <c r="L700" s="17"/>
     </row>
     <row r="701">
+      <c r="K701" s="17"/>
       <c r="L701" s="17"/>
     </row>
     <row r="702">
+      <c r="K702" s="17"/>
       <c r="L702" s="17"/>
     </row>
     <row r="703">
+      <c r="K703" s="17"/>
       <c r="L703" s="17"/>
     </row>
     <row r="704">
+      <c r="K704" s="17"/>
       <c r="L704" s="17"/>
     </row>
     <row r="705">
+      <c r="K705" s="17"/>
       <c r="L705" s="17"/>
     </row>
     <row r="706">
+      <c r="K706" s="17"/>
       <c r="L706" s="17"/>
     </row>
     <row r="707">
+      <c r="K707" s="17"/>
       <c r="L707" s="17"/>
     </row>
     <row r="708">
+      <c r="K708" s="17"/>
       <c r="L708" s="17"/>
     </row>
     <row r="709">
+      <c r="K709" s="17"/>
       <c r="L709" s="17"/>
     </row>
     <row r="710">
+      <c r="K710" s="17"/>
       <c r="L710" s="17"/>
     </row>
     <row r="711">
+      <c r="K711" s="17"/>
       <c r="L711" s="17"/>
     </row>
     <row r="712">
+      <c r="K712" s="17"/>
       <c r="L712" s="17"/>
     </row>
     <row r="713">
+      <c r="K713" s="17"/>
       <c r="L713" s="17"/>
     </row>
     <row r="714">
+      <c r="K714" s="17"/>
       <c r="L714" s="17"/>
     </row>
     <row r="715">
+      <c r="K715" s="17"/>
       <c r="L715" s="17"/>
     </row>
     <row r="716">
+      <c r="K716" s="17"/>
       <c r="L716" s="17"/>
     </row>
     <row r="717">
+      <c r="K717" s="17"/>
       <c r="L717" s="17"/>
     </row>
     <row r="718">
+      <c r="K718" s="17"/>
       <c r="L718" s="17"/>
     </row>
     <row r="719">
+      <c r="K719" s="17"/>
       <c r="L719" s="17"/>
     </row>
     <row r="720">
+      <c r="K720" s="17"/>
       <c r="L720" s="17"/>
     </row>
     <row r="721">
+      <c r="K721" s="17"/>
       <c r="L721" s="17"/>
     </row>
     <row r="722">
+      <c r="K722" s="17"/>
       <c r="L722" s="17"/>
     </row>
     <row r="723">
+      <c r="K723" s="17"/>
       <c r="L723" s="17"/>
     </row>
     <row r="724">
+      <c r="K724" s="17"/>
       <c r="L724" s="17"/>
     </row>
     <row r="725">
+      <c r="K725" s="17"/>
       <c r="L725" s="17"/>
     </row>
     <row r="726">
+      <c r="K726" s="17"/>
       <c r="L726" s="17"/>
     </row>
     <row r="727">
+      <c r="K727" s="17"/>
       <c r="L727" s="17"/>
     </row>
     <row r="728">
+      <c r="K728" s="17"/>
       <c r="L728" s="17"/>
     </row>
     <row r="729">
+      <c r="K729" s="17"/>
       <c r="L729" s="17"/>
     </row>
     <row r="730">
+      <c r="K730" s="17"/>
       <c r="L730" s="17"/>
     </row>
     <row r="731">
+      <c r="K731" s="17"/>
       <c r="L731" s="17"/>
     </row>
     <row r="732">
+      <c r="K732" s="17"/>
       <c r="L732" s="17"/>
     </row>
     <row r="733">
+      <c r="K733" s="17"/>
       <c r="L733" s="17"/>
     </row>
     <row r="734">
+      <c r="K734" s="17"/>
       <c r="L734" s="17"/>
     </row>
     <row r="735">
+      <c r="K735" s="17"/>
       <c r="L735" s="17"/>
     </row>
     <row r="736">
+      <c r="K736" s="17"/>
       <c r="L736" s="17"/>
     </row>
     <row r="737">
+      <c r="K737" s="17"/>
       <c r="L737" s="17"/>
     </row>
     <row r="738">
+      <c r="K738" s="17"/>
       <c r="L738" s="17"/>
     </row>
     <row r="739">
+      <c r="K739" s="17"/>
       <c r="L739" s="17"/>
     </row>
     <row r="740">
+      <c r="K740" s="17"/>
       <c r="L740" s="17"/>
     </row>
     <row r="741">
+      <c r="K741" s="17"/>
       <c r="L741" s="17"/>
     </row>
     <row r="742">
+      <c r="K742" s="17"/>
       <c r="L742" s="17"/>
     </row>
     <row r="743">
+      <c r="K743" s="17"/>
       <c r="L743" s="17"/>
     </row>
     <row r="744">
+      <c r="K744" s="17"/>
       <c r="L744" s="17"/>
     </row>
     <row r="745">
+      <c r="K745" s="17"/>
       <c r="L745" s="17"/>
     </row>
     <row r="746">
+      <c r="K746" s="17"/>
       <c r="L746" s="17"/>
     </row>
     <row r="747">
+      <c r="K747" s="17"/>
       <c r="L747" s="17"/>
     </row>
     <row r="748">
+      <c r="K748" s="17"/>
       <c r="L748" s="17"/>
     </row>
     <row r="749">
+      <c r="K749" s="17"/>
       <c r="L749" s="17"/>
     </row>
     <row r="750">
+      <c r="K750" s="17"/>
       <c r="L750" s="17"/>
     </row>
     <row r="751">
+      <c r="K751" s="17"/>
       <c r="L751" s="17"/>
     </row>
     <row r="752">
+      <c r="K752" s="17"/>
       <c r="L752" s="17"/>
     </row>
     <row r="753">
+      <c r="K753" s="17"/>
       <c r="L753" s="17"/>
     </row>
     <row r="754">
+      <c r="K754" s="17"/>
       <c r="L754" s="17"/>
     </row>
     <row r="755">
+      <c r="K755" s="17"/>
       <c r="L755" s="17"/>
     </row>
     <row r="756">
+      <c r="K756" s="17"/>
       <c r="L756" s="17"/>
     </row>
     <row r="757">
+      <c r="K757" s="17"/>
       <c r="L757" s="17"/>
     </row>
     <row r="758">
+      <c r="K758" s="17"/>
       <c r="L758" s="17"/>
     </row>
     <row r="759">
+      <c r="K759" s="17"/>
       <c r="L759" s="17"/>
     </row>
     <row r="760">
+      <c r="K760" s="17"/>
       <c r="L760" s="17"/>
     </row>
     <row r="761">
+      <c r="K761" s="17"/>
       <c r="L761" s="17"/>
     </row>
     <row r="762">
+      <c r="K762" s="17"/>
       <c r="L762" s="17"/>
     </row>
     <row r="763">
+      <c r="K763" s="17"/>
       <c r="L763" s="17"/>
     </row>
     <row r="764">
+      <c r="K764" s="17"/>
       <c r="L764" s="17"/>
     </row>
     <row r="765">
+      <c r="K765" s="17"/>
       <c r="L765" s="17"/>
     </row>
     <row r="766">
+      <c r="K766" s="17"/>
       <c r="L766" s="17"/>
     </row>
     <row r="767">
+      <c r="K767" s="17"/>
       <c r="L767" s="17"/>
     </row>
     <row r="768">
+      <c r="K768" s="17"/>
       <c r="L768" s="17"/>
     </row>
     <row r="769">
+      <c r="K769" s="17"/>
       <c r="L769" s="17"/>
     </row>
     <row r="770">
+      <c r="K770" s="17"/>
       <c r="L770" s="17"/>
     </row>
     <row r="771">
+      <c r="K771" s="17"/>
       <c r="L771" s="17"/>
     </row>
     <row r="772">
+      <c r="K772" s="17"/>
       <c r="L772" s="17"/>
     </row>
     <row r="773">
+      <c r="K773" s="17"/>
       <c r="L773" s="17"/>
     </row>
     <row r="774">
+      <c r="K774" s="17"/>
       <c r="L774" s="17"/>
     </row>
     <row r="775">
+      <c r="K775" s="17"/>
       <c r="L775" s="17"/>
     </row>
     <row r="776">
+      <c r="K776" s="17"/>
       <c r="L776" s="17"/>
     </row>
     <row r="777">
+      <c r="K777" s="17"/>
       <c r="L777" s="17"/>
     </row>
     <row r="778">
+      <c r="K778" s="17"/>
       <c r="L778" s="17"/>
     </row>
     <row r="779">
+      <c r="K779" s="17"/>
       <c r="L779" s="17"/>
     </row>
     <row r="780">
+      <c r="K780" s="17"/>
       <c r="L780" s="17"/>
     </row>
     <row r="781">
+      <c r="K781" s="17"/>
       <c r="L781" s="17"/>
     </row>
     <row r="782">
+      <c r="K782" s="17"/>
       <c r="L782" s="17"/>
     </row>
     <row r="783">
+      <c r="K783" s="17"/>
       <c r="L783" s="17"/>
     </row>
     <row r="784">
+      <c r="K784" s="17"/>
       <c r="L784" s="17"/>
     </row>
     <row r="785">
+      <c r="K785" s="17"/>
       <c r="L785" s="17"/>
     </row>
     <row r="786">
+      <c r="K786" s="17"/>
       <c r="L786" s="17"/>
     </row>
     <row r="787">
+      <c r="K787" s="17"/>
       <c r="L787" s="17"/>
     </row>
     <row r="788">
+      <c r="K788" s="17"/>
       <c r="L788" s="17"/>
     </row>
     <row r="789">
+      <c r="K789" s="17"/>
       <c r="L789" s="17"/>
     </row>
     <row r="790">
+      <c r="K790" s="17"/>
       <c r="L790" s="17"/>
     </row>
     <row r="791">
+      <c r="K791" s="17"/>
       <c r="L791" s="17"/>
     </row>
     <row r="792">
+      <c r="K792" s="17"/>
       <c r="L792" s="17"/>
     </row>
     <row r="793">
+      <c r="K793" s="17"/>
       <c r="L793" s="17"/>
     </row>
     <row r="794">
+      <c r="K794" s="17"/>
       <c r="L794" s="17"/>
     </row>
     <row r="795">
+      <c r="K795" s="17"/>
       <c r="L795" s="17"/>
     </row>
     <row r="796">
+      <c r="K796" s="17"/>
       <c r="L796" s="17"/>
     </row>
     <row r="797">
+      <c r="K797" s="17"/>
       <c r="L797" s="17"/>
     </row>
     <row r="798">
+      <c r="K798" s="17"/>
       <c r="L798" s="17"/>
     </row>
     <row r="799">
+      <c r="K799" s="17"/>
       <c r="L799" s="17"/>
     </row>
     <row r="800">
+      <c r="K800" s="17"/>
       <c r="L800" s="17"/>
     </row>
     <row r="801">
+      <c r="K801" s="17"/>
       <c r="L801" s="17"/>
     </row>
     <row r="802">
+      <c r="K802" s="17"/>
       <c r="L802" s="17"/>
     </row>
     <row r="803">
+      <c r="K803" s="17"/>
       <c r="L803" s="17"/>
     </row>
     <row r="804">
+      <c r="K804" s="17"/>
       <c r="L804" s="17"/>
     </row>
     <row r="805">
+      <c r="K805" s="17"/>
       <c r="L805" s="17"/>
     </row>
     <row r="806">
+      <c r="K806" s="17"/>
       <c r="L806" s="17"/>
     </row>
     <row r="807">
+      <c r="K807" s="17"/>
       <c r="L807" s="17"/>
     </row>
     <row r="808">
+      <c r="K808" s="17"/>
       <c r="L808" s="17"/>
     </row>
     <row r="809">
+      <c r="K809" s="17"/>
       <c r="L809" s="17"/>
     </row>
     <row r="810">
+      <c r="K810" s="17"/>
       <c r="L810" s="17"/>
     </row>
     <row r="811">
+      <c r="K811" s="17"/>
       <c r="L811" s="17"/>
     </row>
     <row r="812">
+      <c r="K812" s="17"/>
       <c r="L812" s="17"/>
     </row>
     <row r="813">
+      <c r="K813" s="17"/>
       <c r="L813" s="17"/>
     </row>
     <row r="814">
+      <c r="K814" s="17"/>
       <c r="L814" s="17"/>
     </row>
     <row r="815">
+      <c r="K815" s="17"/>
       <c r="L815" s="17"/>
     </row>
     <row r="816">
+      <c r="K816" s="17"/>
       <c r="L816" s="17"/>
     </row>
     <row r="817">
+      <c r="K817" s="17"/>
       <c r="L817" s="17"/>
     </row>
     <row r="818">
+      <c r="K818" s="17"/>
       <c r="L818" s="17"/>
     </row>
     <row r="819">
+      <c r="K819" s="17"/>
       <c r="L819" s="17"/>
     </row>
     <row r="820">
+      <c r="K820" s="17"/>
       <c r="L820" s="17"/>
     </row>
     <row r="821">
+      <c r="K821" s="17"/>
       <c r="L821" s="17"/>
     </row>
     <row r="822">
+      <c r="K822" s="17"/>
       <c r="L822" s="17"/>
     </row>
     <row r="823">
+      <c r="K823" s="17"/>
       <c r="L823" s="17"/>
     </row>
     <row r="824">
+      <c r="K824" s="17"/>
       <c r="L824" s="17"/>
     </row>
     <row r="825">
+      <c r="K825" s="17"/>
       <c r="L825" s="17"/>
     </row>
     <row r="826">
+      <c r="K826" s="17"/>
       <c r="L826" s="17"/>
     </row>
     <row r="827">
+      <c r="K827" s="17"/>
       <c r="L827" s="17"/>
     </row>
     <row r="828">
+      <c r="K828" s="17"/>
       <c r="L828" s="17"/>
     </row>
     <row r="829">
+      <c r="K829" s="17"/>
       <c r="L829" s="17"/>
     </row>
     <row r="830">
+      <c r="K830" s="17"/>
       <c r="L830" s="17"/>
     </row>
     <row r="831">
+      <c r="K831" s="17"/>
       <c r="L831" s="17"/>
     </row>
     <row r="832">
+      <c r="K832" s="17"/>
       <c r="L832" s="17"/>
     </row>
     <row r="833">
+      <c r="K833" s="17"/>
       <c r="L833" s="17"/>
     </row>
     <row r="834">
+      <c r="K834" s="17"/>
       <c r="L834" s="17"/>
     </row>
     <row r="835">
+      <c r="K835" s="17"/>
       <c r="L835" s="17"/>
     </row>
     <row r="836">
+      <c r="K836" s="17"/>
       <c r="L836" s="17"/>
     </row>
     <row r="837">
+      <c r="K837" s="17"/>
       <c r="L837" s="17"/>
     </row>
     <row r="838">
+      <c r="K838" s="17"/>
       <c r="L838" s="17"/>
     </row>
     <row r="839">
+      <c r="K839" s="17"/>
       <c r="L839" s="17"/>
     </row>
     <row r="840">
+      <c r="K840" s="17"/>
       <c r="L840" s="17"/>
     </row>
     <row r="841">
+      <c r="K841" s="17"/>
       <c r="L841" s="17"/>
     </row>
     <row r="842">
+      <c r="K842" s="17"/>
       <c r="L842" s="17"/>
     </row>
     <row r="843">
+      <c r="K843" s="17"/>
       <c r="L843" s="17"/>
     </row>
     <row r="844">
+      <c r="K844" s="17"/>
       <c r="L844" s="17"/>
     </row>
     <row r="845">
+      <c r="K845" s="17"/>
       <c r="L845" s="17"/>
     </row>
     <row r="846">
+      <c r="K846" s="17"/>
       <c r="L846" s="17"/>
     </row>
     <row r="847">
+      <c r="K847" s="17"/>
       <c r="L847" s="17"/>
     </row>
     <row r="848">
+      <c r="K848" s="17"/>
       <c r="L848" s="17"/>
     </row>
     <row r="849">
+      <c r="K849" s="17"/>
       <c r="L849" s="17"/>
     </row>
     <row r="850">
+      <c r="K850" s="17"/>
       <c r="L850" s="17"/>
     </row>
     <row r="851">
+      <c r="K851" s="17"/>
       <c r="L851" s="17"/>
     </row>
     <row r="852">
+      <c r="K852" s="17"/>
       <c r="L852" s="17"/>
     </row>
     <row r="853">
+      <c r="K853" s="17"/>
       <c r="L853" s="17"/>
     </row>
     <row r="854">
+      <c r="K854" s="17"/>
       <c r="L854" s="17"/>
     </row>
     <row r="855">
+      <c r="K855" s="17"/>
       <c r="L855" s="17"/>
     </row>
     <row r="856">
+      <c r="K856" s="17"/>
       <c r="L856" s="17"/>
     </row>
     <row r="857">
+      <c r="K857" s="17"/>
       <c r="L857" s="17"/>
     </row>
     <row r="858">
+      <c r="K858" s="17"/>
       <c r="L858" s="17"/>
     </row>
     <row r="859">
+      <c r="K859" s="17"/>
       <c r="L859" s="17"/>
     </row>
     <row r="860">
+      <c r="K860" s="17"/>
       <c r="L860" s="17"/>
     </row>
     <row r="861">
+      <c r="K861" s="17"/>
       <c r="L861" s="17"/>
     </row>
     <row r="862">
+      <c r="K862" s="17"/>
       <c r="L862" s="17"/>
     </row>
     <row r="863">
+      <c r="K863" s="17"/>
       <c r="L863" s="17"/>
     </row>
     <row r="864">
+      <c r="K864" s="17"/>
       <c r="L864" s="17"/>
     </row>
     <row r="865">
+      <c r="K865" s="17"/>
       <c r="L865" s="17"/>
     </row>
     <row r="866">
+      <c r="K866" s="17"/>
       <c r="L866" s="17"/>
     </row>
     <row r="867">
+      <c r="K867" s="17"/>
       <c r="L867" s="17"/>
     </row>
     <row r="868">
+      <c r="K868" s="17"/>
       <c r="L868" s="17"/>
     </row>
     <row r="869">
+      <c r="K869" s="17"/>
       <c r="L869" s="17"/>
     </row>
     <row r="870">
+      <c r="K870" s="17"/>
       <c r="L870" s="17"/>
     </row>
     <row r="871">
+      <c r="K871" s="17"/>
       <c r="L871" s="17"/>
     </row>
     <row r="872">
+      <c r="K872" s="17"/>
       <c r="L872" s="17"/>
     </row>
     <row r="873">
+      <c r="K873" s="17"/>
       <c r="L873" s="17"/>
     </row>
     <row r="874">
+      <c r="K874" s="17"/>
       <c r="L874" s="17"/>
     </row>
     <row r="875">
+      <c r="K875" s="17"/>
       <c r="L875" s="17"/>
     </row>
     <row r="876">
+      <c r="K876" s="17"/>
       <c r="L876" s="17"/>
     </row>
     <row r="877">
+      <c r="K877" s="17"/>
       <c r="L877" s="17"/>
     </row>
     <row r="878">
+      <c r="K878" s="17"/>
       <c r="L878" s="17"/>
     </row>
     <row r="879">
+      <c r="K879" s="17"/>
       <c r="L879" s="17"/>
     </row>
     <row r="880">
+      <c r="K880" s="17"/>
       <c r="L880" s="17"/>
     </row>
     <row r="881">
+      <c r="K881" s="17"/>
       <c r="L881" s="17"/>
     </row>
     <row r="882">
+      <c r="K882" s="17"/>
       <c r="L882" s="17"/>
     </row>
     <row r="883">
+      <c r="K883" s="17"/>
       <c r="L883" s="17"/>
     </row>
     <row r="884">
+      <c r="K884" s="17"/>
       <c r="L884" s="17"/>
     </row>
     <row r="885">
+      <c r="K885" s="17"/>
       <c r="L885" s="17"/>
     </row>
     <row r="886">
+      <c r="K886" s="17"/>
       <c r="L886" s="17"/>
     </row>
     <row r="887">
+      <c r="K887" s="17"/>
       <c r="L887" s="17"/>
     </row>
     <row r="888">
+      <c r="K888" s="17"/>
       <c r="L888" s="17"/>
     </row>
     <row r="889">
+      <c r="K889" s="17"/>
       <c r="L889" s="17"/>
     </row>
     <row r="890">
+      <c r="K890" s="17"/>
       <c r="L890" s="17"/>
     </row>
     <row r="891">
+      <c r="K891" s="17"/>
       <c r="L891" s="17"/>
     </row>
     <row r="892">
+      <c r="K892" s="17"/>
       <c r="L892" s="17"/>
     </row>
     <row r="893">
+      <c r="K893" s="17"/>
       <c r="L893" s="17"/>
     </row>
     <row r="894">
+      <c r="K894" s="17"/>
       <c r="L894" s="17"/>
     </row>
     <row r="895">
+      <c r="K895" s="17"/>
       <c r="L895" s="17"/>
     </row>
     <row r="896">
+      <c r="K896" s="17"/>
       <c r="L896" s="17"/>
     </row>
     <row r="897">
+      <c r="K897" s="17"/>
       <c r="L897" s="17"/>
     </row>
     <row r="898">
+      <c r="K898" s="17"/>
       <c r="L898" s="17"/>
     </row>
     <row r="899">
+      <c r="K899" s="17"/>
       <c r="L899" s="17"/>
     </row>
     <row r="900">
+      <c r="K900" s="17"/>
       <c r="L900" s="17"/>
     </row>
     <row r="901">
+      <c r="K901" s="17"/>
       <c r="L901" s="17"/>
     </row>
     <row r="902">
+      <c r="K902" s="17"/>
       <c r="L902" s="17"/>
     </row>
     <row r="903">
+      <c r="K903" s="17"/>
       <c r="L903" s="17"/>
     </row>
     <row r="904">
+      <c r="K904" s="17"/>
       <c r="L904" s="17"/>
     </row>
     <row r="905">
+      <c r="K905" s="17"/>
       <c r="L905" s="17"/>
     </row>
     <row r="906">
+      <c r="K906" s="17"/>
       <c r="L906" s="17"/>
     </row>
     <row r="907">
+      <c r="K907" s="17"/>
       <c r="L907" s="17"/>
     </row>
     <row r="908">
+      <c r="K908" s="17"/>
       <c r="L908" s="17"/>
     </row>
     <row r="909">
+      <c r="K909" s="17"/>
       <c r="L909" s="17"/>
     </row>
     <row r="910">
+      <c r="K910" s="17"/>
       <c r="L910" s="17"/>
     </row>
     <row r="911">
+      <c r="K911" s="17"/>
       <c r="L911" s="17"/>
     </row>
     <row r="912">
+      <c r="K912" s="17"/>
       <c r="L912" s="17"/>
     </row>
     <row r="913">
+      <c r="K913" s="17"/>
       <c r="L913" s="17"/>
     </row>
     <row r="914">
+      <c r="K914" s="17"/>
       <c r="L914" s="17"/>
     </row>
     <row r="915">
+      <c r="K915" s="17"/>
       <c r="L915" s="17"/>
     </row>
     <row r="916">
+      <c r="K916" s="17"/>
       <c r="L916" s="17"/>
     </row>
     <row r="917">
+      <c r="K917" s="17"/>
       <c r="L917" s="17"/>
     </row>
     <row r="918">
+      <c r="K918" s="17"/>
       <c r="L918" s="17"/>
     </row>
     <row r="919">
+      <c r="K919" s="17"/>
       <c r="L919" s="17"/>
     </row>
     <row r="920">
+      <c r="K920" s="17"/>
       <c r="L920" s="17"/>
     </row>
     <row r="921">
+      <c r="K921" s="17"/>
       <c r="L921" s="17"/>
     </row>
     <row r="922">
+      <c r="K922" s="17"/>
       <c r="L922" s="17"/>
     </row>
     <row r="923">
+      <c r="K923" s="17"/>
       <c r="L923" s="17"/>
     </row>
     <row r="924">
+      <c r="K924" s="17"/>
       <c r="L924" s="17"/>
     </row>
     <row r="925">
+      <c r="K925" s="17"/>
       <c r="L925" s="17"/>
     </row>
     <row r="926">
+      <c r="K926" s="17"/>
       <c r="L926" s="17"/>
     </row>
     <row r="927">
+      <c r="K927" s="17"/>
       <c r="L927" s="17"/>
     </row>
     <row r="928">
+      <c r="K928" s="17"/>
       <c r="L928" s="17"/>
     </row>
     <row r="929">
+      <c r="K929" s="17"/>
       <c r="L929" s="17"/>
     </row>
     <row r="930">
+      <c r="K930" s="17"/>
       <c r="L930" s="17"/>
     </row>
     <row r="931">
+      <c r="K931" s="17"/>
       <c r="L931" s="17"/>
     </row>
     <row r="932">
+      <c r="K932" s="17"/>
       <c r="L932" s="17"/>
     </row>
     <row r="933">
+      <c r="K933" s="17"/>
       <c r="L933" s="17"/>
     </row>
     <row r="934">
+      <c r="K934" s="17"/>
       <c r="L934" s="17"/>
     </row>
     <row r="935">
+      <c r="K935" s="17"/>
       <c r="L935" s="17"/>
     </row>
     <row r="936">
+      <c r="K936" s="17"/>
       <c r="L936" s="17"/>
     </row>
     <row r="937">
+      <c r="K937" s="17"/>
       <c r="L937" s="17"/>
     </row>
     <row r="938">
+      <c r="K938" s="17"/>
       <c r="L938" s="17"/>
     </row>
     <row r="939">
+      <c r="K939" s="17"/>
       <c r="L939" s="17"/>
     </row>
     <row r="940">
+      <c r="K940" s="17"/>
       <c r="L940" s="17"/>
     </row>
     <row r="941">
+      <c r="K941" s="17"/>
       <c r="L941" s="17"/>
     </row>
     <row r="942">
+      <c r="K942" s="17"/>
       <c r="L942" s="17"/>
     </row>
     <row r="943">
+      <c r="K943" s="17"/>
       <c r="L943" s="17"/>
     </row>
     <row r="944">
+      <c r="K944" s="17"/>
       <c r="L944" s="17"/>
     </row>
     <row r="945">
+      <c r="K945" s="17"/>
       <c r="L945" s="17"/>
     </row>
     <row r="946">
+      <c r="K946" s="17"/>
       <c r="L946" s="17"/>
     </row>
     <row r="947">
+      <c r="K947" s="17"/>
       <c r="L947" s="17"/>
     </row>
     <row r="948">
+      <c r="K948" s="17"/>
       <c r="L948" s="17"/>
     </row>
     <row r="949">
+      <c r="K949" s="17"/>
       <c r="L949" s="17"/>
     </row>
     <row r="950">
+      <c r="K950" s="17"/>
       <c r="L950" s="17"/>
     </row>
     <row r="951">
+      <c r="K951" s="17"/>
       <c r="L951" s="17"/>
     </row>
     <row r="952">
+      <c r="K952" s="17"/>
       <c r="L952" s="17"/>
     </row>
     <row r="953">
+      <c r="K953" s="17"/>
       <c r="L953" s="17"/>
     </row>
     <row r="954">
+      <c r="K954" s="17"/>
       <c r="L954" s="17"/>
     </row>
     <row r="955">
+      <c r="K955" s="17"/>
       <c r="L955" s="17"/>
     </row>
     <row r="956">
+      <c r="K956" s="17"/>
       <c r="L956" s="17"/>
     </row>
     <row r="957">
+      <c r="K957" s="17"/>
       <c r="L957" s="17"/>
     </row>
     <row r="958">
+      <c r="K958" s="17"/>
       <c r="L958" s="17"/>
     </row>
     <row r="959">
+      <c r="K959" s="17"/>
       <c r="L959" s="17"/>
     </row>
     <row r="960">
+      <c r="K960" s="17"/>
       <c r="L960" s="17"/>
     </row>
     <row r="961">
+      <c r="K961" s="17"/>
       <c r="L961" s="17"/>
     </row>
     <row r="962">
+      <c r="K962" s="17"/>
       <c r="L962" s="17"/>
     </row>
     <row r="963">
+      <c r="K963" s="17"/>
       <c r="L963" s="17"/>
     </row>
     <row r="964">
+      <c r="K964" s="17"/>
       <c r="L964" s="17"/>
     </row>
     <row r="965">
+      <c r="K965" s="17"/>
       <c r="L965" s="17"/>
     </row>
     <row r="966">
+      <c r="K966" s="17"/>
       <c r="L966" s="17"/>
     </row>
     <row r="967">
+      <c r="K967" s="17"/>
       <c r="L967" s="17"/>
     </row>
     <row r="968">
+      <c r="K968" s="17"/>
       <c r="L968" s="17"/>
     </row>
     <row r="969">
+      <c r="K969" s="17"/>
       <c r="L969" s="17"/>
     </row>
     <row r="970">
+      <c r="K970" s="17"/>
       <c r="L970" s="17"/>
     </row>
     <row r="971">
+      <c r="K971" s="17"/>
       <c r="L971" s="17"/>
     </row>
     <row r="972">
+      <c r="K972" s="17"/>
       <c r="L972" s="17"/>
     </row>
     <row r="973">
+      <c r="K973" s="17"/>
       <c r="L973" s="17"/>
     </row>
     <row r="974">
+      <c r="K974" s="17"/>
       <c r="L974" s="17"/>
     </row>
     <row r="975">
+      <c r="K975" s="17"/>
       <c r="L975" s="17"/>
     </row>
     <row r="976">
+      <c r="K976" s="17"/>
       <c r="L976" s="17"/>
     </row>
     <row r="977">
+      <c r="K977" s="17"/>
       <c r="L977" s="17"/>
     </row>
     <row r="978">
+      <c r="K978" s="17"/>
       <c r="L978" s="17"/>
     </row>
     <row r="979">
+      <c r="K979" s="17"/>
       <c r="L979" s="17"/>
     </row>
     <row r="980">
+      <c r="K980" s="17"/>
       <c r="L980" s="17"/>
     </row>
     <row r="981">
+      <c r="K981" s="17"/>
       <c r="L981" s="17"/>
     </row>
     <row r="982">
+      <c r="K982" s="17"/>
       <c r="L982" s="17"/>
     </row>
     <row r="983">
+      <c r="K983" s="17"/>
       <c r="L983" s="17"/>
     </row>
     <row r="984">
+      <c r="K984" s="17"/>
       <c r="L984" s="17"/>
     </row>
     <row r="985">
+      <c r="K985" s="17"/>
       <c r="L985" s="17"/>
     </row>
     <row r="986">
+      <c r="K986" s="17"/>
       <c r="L986" s="17"/>
     </row>
     <row r="987">
+      <c r="K987" s="17"/>
       <c r="L987" s="17"/>
     </row>
     <row r="988">
+      <c r="K988" s="17"/>
       <c r="L988" s="17"/>
     </row>
     <row r="989">
+      <c r="K989" s="17"/>
       <c r="L989" s="17"/>
     </row>
     <row r="990">
+      <c r="K990" s="17"/>
       <c r="L990" s="17"/>
     </row>
     <row r="991">
+      <c r="K991" s="17"/>
       <c r="L991" s="17"/>
     </row>
     <row r="992">
+      <c r="K992" s="17"/>
       <c r="L992" s="17"/>
     </row>
     <row r="993">
+      <c r="K993" s="17"/>
       <c r="L993" s="17"/>
     </row>
     <row r="994">
+      <c r="K994" s="17"/>
       <c r="L994" s="17"/>
     </row>
     <row r="995">
+      <c r="K995" s="17"/>
       <c r="L995" s="17"/>
     </row>
     <row r="996">
+      <c r="K996" s="17"/>
       <c r="L996" s="17"/>
     </row>
     <row r="997">
+      <c r="K997" s="17"/>
       <c r="L997" s="17"/>
     </row>
     <row r="998">
+      <c r="K998" s="17"/>
       <c r="L998" s="17"/>
     </row>
     <row r="999">
+      <c r="K999" s="17"/>
       <c r="L999" s="17"/>
     </row>
     <row r="1000">
+      <c r="K1000" s="17"/>
       <c r="L1000" s="17"/>
     </row>
     <row r="1001">
+      <c r="K1001" s="17"/>
       <c r="L1001" s="17"/>
     </row>
     <row r="1002">
+      <c r="K1002" s="17"/>
       <c r="L1002" s="17"/>
     </row>
   </sheetData>
